--- a/DOWNLOADS/EDITAIS/U_380195_E_900232025_25-09-2025_09h00m/U_380195_E_900232025_25-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_380195_E_900232025_25-09-2025_09h00m/U_380195_E_900232025_25-09-2025_09h00m_master.xlsx
@@ -469,13 +469,13 @@
     <t>Argamassa; Composição à Base de Cimento Portland, Agregados Minerais, Polímeros de Fixação, Aditivos Não-tóxico; para Fixação de Revestimentos Em Pisos Industriais, Com Tráfego Intenso, Porcelanato, Pisos Externos;s Na Cor Clinza, Argamassa Colante, Aditivada, Tipo Acili E; Validade de 180 Dias a Partir do Recebimento; Embalada Em Saco;</t>
   </si>
   <si>
-    <t>Aguarras; a Base de Solventes Alifaticos e Aromaticos, Isento de Benzeno, Alcool e Querosene; para Diluicaoo de Esmaltes Sinteticos, Tintas Oleo, Vernizes; Na Forma de Liquido Incolor, Inflamavel, Densidadede 0,75-0,80 G/cm? e Voc de 773-777 G/l; Acondicionado Em Embalagem Que  Assegure àa Qualidade do Produto; Validade de 48 Meses Apos Data  de Recebimento; Conforme Nbr/abnt 11702 Tipo 4.7./, Voc Din En 11890-1;</t>
+    <t>Aguarras; a Base de Solventes Alifaticos e Aromaticos, Isento de Benzeno, Alcool e Querosene; para Diluicaoo de Esmaltes Sinteticos, Tintas Oleo, Vernizes; Na Forma de Liquido Incolor, Inflamavel, Densidadede 0,75-0,80 G/cm? e Voc de 773-777 G/l; Acondicionado Em Embalagem Que Assegure àa Qualidade do Produto; Validade de 48 Meses Apos Data de Recebimento; Conforme Nbr/abnt 11702 Tipo 4.7./, Voc Din En 11890-1;</t>
   </si>
   <si>
     <t>Barra Chata; de Aco Carbono Astm a - 36; Medindo 2" x 1/2"; para Ser Utilizada Em Serralheria; Comprimento de 6 Metros;</t>
   </si>
   <si>
-    <t>Barra Macica Metais Ferrosos; de Aco Carbono; No Formato Redondo; BARRA 4 do Tipo Lisa; Medindo Diametro 25mm; Devendo Ser Entregue Natural, Sem Acabamento;</t>
+    <t>Barra Macica Metais Ferrosos; de Aco Carbono; No Formato Redondo; 4 do Tipo Lisa; Medindo Diametro 25mm; Devendo Ser Entregue Natural, Sem Acabamento;</t>
   </si>
   <si>
     <t>Boia e Torneira para Caixa Dagua; de Plastica; para Ser Utilizada Em Cx. Dagua; Devendo Ser Entregue Varao de Metal; para Atender Bitola de 3/4 Pol.;</t>
@@ -490,7 +490,7 @@
     <t>Cantoneira de Abas lIguais; de Ferro; Medindo (3/4" x 1/4"); para Ser Utilizada Em Serralheria</t>
   </si>
   <si>
-    <t>Cimento Portland Composto (cp |l- e); Composto de Escória Granulada de Alto Forno; Com Resistencia de 32 Mpa; Faixa de Porcent. Em Peso de Clinquertsulf.calcio 94-56%; e Faixa de Porcentagem Em Peso de Escoria de 6-34%; C/ Faixa de Porcentagem de Material Carbonatico de 0-10%; Embalagem Em Saco 50 Kg Tipo "kraft"; Com Limite de Porcentagem de Residuo Insoluvel Menor Ou Igual a 2,5%; Com Limite de Porcentagem de Perda Ao Fogo Menor Ou Igual a 6,5%; Com Limite de Porcentagem de Oxido de Magnesio Menor Ou Igual a 6,5%; Com Limite de Porcentagem de Trioxido de Enxofre Menor Ou Igual a 4%; Com Limite de Porcentagem de Anidrido Carbonico Menor Ou Igual a 5%; Com Limite de Tempo de Fim de Pega Menor Ou Igual a 10 Horas; Limite de Expansibilidade a Frio/quente Menor Ou Igual a 5 Mm; Limite de Tempo de Início de Pega Menor Ou (lIgua a 1 Hora; Normatizacao— Conforme — Norma Abnt Nbr 11578, Eb 208, Mb-1153. o Produto Deverá Vir Acompanhado Da Fispq Conforme Nbr 14725</t>
+    <t>Cimento Portland Composto (cp Il-e); Composto de Escória Granulada de Alto Forno; Com Resistencia de 32 Mpa; Faixa de Porcent. Em Peso de Clinquertsulf.calcio 94-56%; e Faixa de Porcentagem Em Peso de Escoria de 6-34%; C/ Faixa de Porcentagem de Material Carbonatico de 0-10%; Embalagem Em Saco 50 Kg Tipo "kraft"; Com Limite de Porcentagem de Residuo Insoluvel Menor Ou Igual a 2,5%; Com Limite de Porcentagem de Perda Ao Fogo Menor Ou Igual a 6,5%; Com Limite de Porcentagem de Oxido de Magnesio Menor Ou Igual a 6,5%; Com Limite de Porcentagem de Trioxido de Enxofre Menor Ou Igual a 4%; Com Limite de Porcentagem de Anidrido Carbonico Menor Ou Igual a 5%; Com Limite de Tempo de Fim de Pega Menor Ou Igual a 10 Horas; Limite de Expansibilidade a Frio/quente Menor Ou Igual a 5 Mm; Limite de Tempo de Início de Pega Menor Ou (lIgua a 1 Hora; Normatizacao— Conforme — Norma Abnt Nbr 11578, Eb 208, Mb-1153. o Produto Deverá Vir Acompanhado Da Fispq Conforme Nbr 14725</t>
   </si>
   <si>
     <t>Adesivo para Tubo de Pvc; a Base de Resina de Pvc, Acetona, Metil-etil-cetona, Cicloexanona e Solventes Organicos; Utilizado Na Soldagem de Tubos e Conexoes de Pvc Nbr 5648 (agua Fria); Acondicionado Em Frasco de 175 g Com Pincel Aplicador</t>
@@ -499,13 +499,13 @@
     <t>Caixa de Descarga; Em Pvc Rigido; No Formato Retangular,vna Cor Branca; Com Capacidade para 10 Litros: Devendo o Material Vir Acompanhado de Engate e Pecas de Fixacao</t>
   </si>
   <si>
-    <t>Lubrificante Aerosol; Liquido, Desengripante, Multiuso; Utilizado Em para Neutralizar Oxidações e Proteção de Partes Cromadas, Eletrodomésticos, Dobradiças, Armas, Motos; Composto de Blenda de Oleo  Lubrificante, — Aditivo Antioxidante,aditivo — Anticorrosivo, Essencia; Butano e Propano Como Propelente, Antioxidante Eliminador de Agua Da Superficie; Propriedades Densidade(g/cm3) 0,850-0,900, Ponto de Fulgor ºc, Min. 150, Viscosidade (40ºc, Cst) 8,5-15; Cor Levemente Amarelada, Odor  Caracteristico de  Coco; Embalado Em Validade de 24 Meses</t>
+    <t>Lubrificante Aerosol; Liquido, Desengripante, Multiuso; Utilizado Em para Neutralizar Oxidações e Proteção de Partes Cromadas, Eletrodomésticos, Dobradiças, Armas, Motos; Composto de Blenda de Oleo Lubrificante, Aditivo Antioxidante,aditivo Anticorrosivo, Essencia; Butano e Propano Como Propelente, Antioxidante Eliminador de Agua Da Superficie; Propriedades Densidade(g/cm3) 0,850-0,900, Ponto de Fulgor ºc, Min. 150, Viscosidade (40ºc, Cst) 8,5-15; Cor Levemente Amarelada, Odor Caracteristico de Coco; Embalado Em Validade de 24 Meses</t>
   </si>
   <si>
     <t>Disco de Corte;: de Carbeto de Silicio; Diametro de 12";: Furo Central 7/8 Polegada (22.2mm); Espessura 3 Mm; Com 2 Telas de Protecao; Aplicação No Corte de Chapas, Tubos, Barras e Superfícies Em Geral; Conforme Abnt - Nbr15230, Ansi B7.1 En 12413 Alémda Pe-033</t>
   </si>
   <si>
-    <t>Rebolo; Tipo 41 - Disco de Corte; 7" x 1/8" x 7/8" (180,0 x 3,2 x 22,2 Mm); Grao Abrasivo Oxido de Aluminio: Com Duas Telas de Reforco Em Fibra de  Vidro; Conforme Nbr 15230; para Corte de Materiais Ferrosos; Com Validade de 1 Ano a Partir do Recebimento</t>
+    <t>Rebolo; Tipo 41 - Disco de Corte; 7" x 1/8" x 7/8" (180,0 x 3,2 x 22,2 Mm); Grao Abrasivo Oxido de Aluminio: Com Duas Telas de Reforco Em Fibra de Vidro; Conforme Nbr 15230; para Corte de Materiais Ferrosos; Com Validade de 1 Ano a Partir do Recebimento</t>
   </si>
   <si>
     <t>Disco de Corte; Em Aco Liga Especial, Tempera Total No Corpo, Dureza Diferenciada Na Area de Corte; Diametro 4.3/8 Polegadas 110 Mm; Furo Central 20 Mm; Espessura 2 Mm; Rotacao Max. 15.000 Rpm; Diamantado; Corte a Seco para Granitos, Marmores, Basalto, Ardosia e Pedras; Seguindo En 13236</t>
@@ -517,13 +517,13 @@
     <t>Eletrodo de Solda; Composto de 0,07% C, 0,5% S, 1,1% Mrn; Bitola 3,25mm e Comprimento 350mm; Tipo Vareta, Norma Asme Sfa 5.1 E7018; para Soldagem de Estruturas Em Geral</t>
   </si>
   <si>
-    <t>Eletrodo de Solda; 0,06% Carbono, 0,3% Silicio, 0,5% Manganes; Bitola 2,5mm;,tipo Vareta, 350mMm Comprimento; Tipo Vareta, Todas As  Posicoes para Soldagem, Embalado Em Caixa, Aws A5.1 - E6013; para Soldagem de Aco Baixo e Medio Carbono</t>
+    <t>Eletrodo de Solda; 0,06% Carbono, 0,3% Silicio, 0,5% Manganes; Bitola 2,5mm;,tipo Vareta, 350mMm Comprimento; Tipo Vareta, Todas As Posicoes para Soldagem, Embalado Em Caixa, Aws A5.1 - E6013; para Soldagem de Aco Baixo e Medio Carbono</t>
   </si>
   <si>
     <t>Eletrodo de Solda; Composto de Carbono, Silicio e Manganes; Com Bitola de 3,25mm; Tipo Vareta, E-6013; para Soldagem e Ponteamento</t>
   </si>
   <si>
-    <t>Cabo Eletrico; de Cobre, Em Conformidade Com a Nbr 247-3; Encordamento Classe 4; Secao Nominal Condutor 2,5mm2; Bwf/b; Isolacao Pvc/a 750 V, 70 Graus Celsius, Sem  Cobertura; Tipo Flexivel; Na Cor Azul</t>
+    <t>Cabo Eletrico; de Cobre, Em Conformidade Com a Nbr 247-3; Encordamento Classe 4; Secao Nominal Condutor 2,5mm2; Bwf/b; Isolacao Pvc/a 750 V, 70 Graus Celsius, Sem Cobertura; Tipo Flexivel; Na Cor Azul</t>
   </si>
   <si>
     <t>Cabo Eletrico; de Cobre;: Com Secao de 25 Mm2; Capa Termoplastica Anti-chama; Tensao de Isolamento de 450/750v; Cabo Tipo Flexivel: Na Cor Preta, Com Selo Inmetro; Norma Nbr 6148</t>
@@ -532,7 +532,7 @@
     <t>Cabo Eletrico; de Cobre, Certificado Inmetro: Em Conformidade Coma Nbr 247-3; Encordamento Classe 4; Secao Nominal Condutor Com Area de Secao 4,0mm2; Bwf/b; Isolacao Pvcla 750 V, 70 Graus Celsius, Sem Cobertura; Tipo Flexiveli: Na Cor Azul</t>
   </si>
   <si>
-    <t>Fio Eletrico; Instalacoes Eletricas; Material do  Condutor  Cobre Eletrolitico, Tempera Mole, Classe Encordoamento 1; Secao Nominal Condutor 4mm2; Camada lIsolante Tensao Isolacao 450/750v; Classe de Temperatunra Em  Regime Permanente 70ºc; Materia Da Cobertura Pvc Bwf Antichama, Cor Preta; Conforme Norma Tecnica Nbr Nm 247-3 e Nm 280, Com Certificacao Compulsoria Inmetro</t>
+    <t>Fio Eletrico; Instalacoes Eletricas; Material do Condutor Cobre Eletrolitico, Tempera Mole, Classe Encordoamento 1; Secao Nominal Condutor 4mm2; Camada lIsolante Tensao Isolacao 450/750v; Classe de Temperatunra Em Regime Permanente 70ºc; Materia Da Cobertura Pvc Bwf Antichama, Cor Preta; Conforme Norma Tecnica Nbr Nm 247-3 e Nm 280, Com Certificacao Compulsoria Inmetro</t>
   </si>
   <si>
     <t>Lixa para Construcao Civil; de Oxido de Aluminio, Com Costado de Pano; para Ferro e Metais Em Geral; Grao 80; Em Folha; Medindo (275x225)mm; para Preparacao de Superficie Metalica para Pintura; Conforme Normas Nbr/abnt Vigentes</t>
@@ -541,7 +541,7 @@
     <t>Neutralizador de Ferrugem; a Base de Primer Convertedor de Ferrugem, Liquido Viscoso; Concentracao de Solvente (densidade a 25ºc) 1,0-1,1 G/cm3, Ph 3,5-4,2; Fundo Preto; Dispensa a Necessidade de Remocao Da Ferrugem</t>
   </si>
   <si>
-    <t>Plafonier; de Polipropileno, Soquete de Porcelana E-27, Contatos Em Latao: No Formato Redondo, Na Cor Branca; Com Diametro de 14,6 Cm e Altura de 4.8 Cm; para Ser Utilizado Como Base para Lampada 200w, Tensao 220v; Devendo Ser Entregue Com  Travessa para Fixaçãao No Teto, Com Parafusos Incluso</t>
+    <t>Plafonier; de Polipropileno, Soquete de Porcelana E-27, Contatos Em Latao: No Formato Redondo, Na Cor Branca; Com Diametro de 14,6 Cm e Altura de 4.8 Cm; para Ser Utilizado Como Base para Lampada 200w, Tensao 220v; Devendo Ser Entregue Com Travessa para Fixaçãao No Teto, Com Parafusos Incluso</t>
   </si>
   <si>
     <t>Trincha; Tipo Dupla; Com Largura de 2 Pol; Cerda Na Cor Branca; Cabo de Plastico Amarelo; para Aplicar Verniz e Stain</t>
@@ -550,7 +550,7 @@
     <t>Trincha; Tipo Dupla; Com Largura de 4 Polegadas (101mm), Comprimento Total (cabot+chapat+cerdas) de 246mm; Cerda Na Cor Preta, Comprimento de 55Mm e Espessura de 15mm; Cabo de Plastico, Cerda Natural, Chapa de Fixacao Das Cerdas de Aco, Adesivo Epoxi; para Aplicar Tinta Oleo e Esmalte Sintetico</t>
   </si>
   <si>
-    <t>Reator para Lampada Vapor Sodio; Tipo Eletromagnetico, para Uso Externo; Com Partida Rapida, Com Ignitor  Incorporado; de 220v - Frequencia de Alimentação de 50 a 60hz; Com Fator de Potencia Maior Ou Igual a 0,93; Amplitude de Tensao do Ignitor de 3,0 Kv a 4,5 Kv; para Lampada de 400w; Em Perfeitas Condicoes; Nbr 14305</t>
+    <t>Reator para Lampada Vapor Sodio; Tipo Eletromagnetico, para Uso Externo; Com Partida Rapida, Com Ignitor Incorporado; de 220v - Frequencia de Alimentação de 50 a 60hz; Com Fator de Potencia Maior Ou Igual a 0,93; Amplitude de Tensao do Ignitor de 3,0 Kv a 4,5 Kv; para Lampada de 400w; Em Perfeitas Condicoes; Nbr 14305</t>
   </si>
   <si>
     <t>Registro de Esfera; de Latao; Na Cor Natural do Latao; Diametro Nominal de 3/4": Rosca Interna; Acionamento Tipo Borboleta; para Ser Instalado Em Rede Hidraulica, Temperatura Maxima de 60 Graus; Conforme Normas Nbr/abnt Vigentes; Garantia de 12 Meses</t>
@@ -559,22 +559,22 @@
     <t>Registro de Pressao; Fabricado Em Lliga de Cobre; Modelo Com Borboleta: Com Diâmetro Nominal de 3/4" (aprox. 20 Mm); para Ser Utilizado Em Instalações Prediais de Água; Acionamento Por Borboleta; Conexão de Entrada Com Rosca Interna, Conexão de Saída Com Rosca Externa; Fabricação Conforme Norma Abnt Nbr 15704, Rosca Conforme Abnt Nbr Nm Iso 7-1</t>
   </si>
   <si>
-    <t>Rejunte; de Cimento  Portland, Agregados — Minerais, — Pigmentos Inorgânicos, Polímeros e Aditivos; Tipo l; Na Cor Branca; para Absorver Dilatações — Térmicas, Juntas de 2 a 10 Mm; Embalado Em Saco Plástico; Conforme Norma Abnt Nbr 14992</t>
-  </si>
-  <si>
-    <t>Rejunte; de Cimento  Portland, Agregados — Minerais, — Pigmentos Inorganicos, Polimeros e Aditivos; do Tipo li, Resinado, Siliconado, Antimofo e Acabamento Superfino, para Juntas de 1 a 10mm; Na Cor Cinza Cimento; para Areas Interna e Externa; Embalado Em  Saco Plastico; Conforme Norma Nbr/abnt 14.992</t>
-  </si>
-  <si>
-    <t>Rejunte; de Cimento  Portland, Agregados — Minerais, — Pigmentos Inorganicos, Polimeros e Aditivos; Tipo li; Na Cor Bege; para Absorver Dilatacoes Termicas, Juntas de 2 a 10 Mm; Acondicionado Em Saco Plastico Apropriado Que Garanta a Integridade do Produto; Conforme Norma Abnt Nbr 14992</t>
-  </si>
-  <si>
-    <t>Revestimento Ceramico; Azulejo; No Formato Quadrado, Medindo (20x20)cm; Com Espessura de 6,0mm; Absorção de Água Grupo b li; Carga de Ruptura Classe de Atrito |; Resistencia a Manchamento Classe 3; Resistencia Quimica Gb/glb; Acabamento Liso, Esmaltado; Cor Branca; Indicado para — Banheiros, Cozinhas e Piscinas; Conforme Norma Nbr/abnt Vigentes</t>
+    <t>Rejunte; de Cimento Portland, Agregados Minerais, Pigmentos Inorgânicos, Polímeros e Aditivos; Tipo l; Na Cor Branca; para Absorver Dilatações Térmicas, Juntas de 2 a 10 Mm; Embalado Em Saco Plástico; Conforme Norma Abnt Nbr 14992</t>
+  </si>
+  <si>
+    <t>Rejunte; de Cimento Portland, Agregados Minerais, Pigmentos Inorganicos, Polimeros e Aditivos; do Tipo li, Resinado, Siliconado, Antimofo e Acabamento Superfino, para Juntas de 1 a 10mm; Na Cor Cinza Cimento; para Areas Interna e Externa; Embalado Em Saco Plastico; Conforme Norma Nbr/abnt 14.992</t>
+  </si>
+  <si>
+    <t>Rejunte; de Cimento Portland, Agregados Minerais, Pigmentos Inorganicos, Polimeros e Aditivos; Tipo li; Na Cor Bege; para Absorver Dilatacoes Termicas, Juntas de 2 a 10 Mm; Acondicionado Em Saco Plastico Apropriado Que Garanta a Integridade do Produto; Conforme Norma Abnt Nbr 14992</t>
+  </si>
+  <si>
+    <t>Revestimento Ceramico; Azulejo; No Formato Quadrado, Medindo (20x20)cm; Com Espessura de 6,0mm; Absorção de Água Grupo b li; Carga de Ruptura Classe de Atrito |; Resistencia a Manchamento Classe 3; Resistencia Quimica Gb/glb; Acabamento Liso, Esmaltado; Cor Branca; Indicado para Banheiros, Cozinhas e Piscinas; Conforme Norma Nbr/abnt Vigentes</t>
   </si>
   <si>
     <t>Revestimento Ceramico; Extrudado; 30cm x 3O0cm; Com Espessura 9mm; Absorção de Água Menor Que 3%; Resistencia Ao Manchamento Classe 5; Resistencia Quimica Igual Ou Maior a Gha; Acabamento Liso; Cor Cinza Claro; Indicado para Piso de Cozinha Industrial: Conforme Norma Vigente</t>
   </si>
   <si>
-    <t>Revestimento — Ceramico; Azulejo; Formato Quadrado, Medindo (45 x 45)cm; Com Espessura Aproximada de 7,2mm; Absorção de Água Biib 6 à 10;: Pei 4; Resistencia a Manchamento Maior Ou Igual a 3; Resistencia Quimica Maior Ou Igual Glb; Liso Brilhante; Cor Branca; Indicado para Banheiros, Cozinhas e Piscinass Conforme  Norma Conforme Norma Nbr/abnt Vigentes</t>
+    <t>Revestimento Ceramico; Azulejo; Formato Quadrado, Medindo (45 x 45)cm; Com Espessura Aproximada de 7,2mm; Absorção de Água Biib 6 à 10;: Pei 4; Resistencia a Manchamento Maior Ou Igual a 3; Resistencia Quimica Maior Ou Igual Glb; Liso Brilhante; Cor Branca; Indicado para Banheiros, Cozinhas e Piscinass Conforme Norma Conforme Norma Nbr/abnt Vigentes</t>
   </si>
   <si>
     <t>Camisa para Rolo de Pintura; Em Pele de Carneiro, Altura Da La 25 Mm, para Uso Em Parede Rugosa; Com Largura de 23 Cm</t>
@@ -595,37 +595,37 @@
     <t>Tinta Latex; Desempenho Premium, Tipo Látex Vinil Acrílica para Parede; Composição à Base de Resina Acrílica, Polímeros Vinílicos, Pigmentos Ativos, Cargas Inertes; Coalescentes, Espessantes, Bactericidas e Fungicidas, Aditivos e Água; Solvente Base Água, Diluível Em Água Potável, Baixa Toxidade, Viscosidade de 100 Uk; Rendimento de 380 Mº/demão (embalagem 18J), Peso Específico Aprox. 1,40 G/cm?, Brilho (&amp;60ºc de 4 Ub; Voc (compostos Orgânicos Voláteis) de 6,40 G/l; Isenta de Metais Pesados; Acabamento Fosco Aveludado; Na Cor Branco Notação Ral 9010 (comercialmente Branco Neve); para Ambientes Externos e lInternos, Superfícies de Alvenaria, Reboco, Concreto, Fibrocimento, Texturas; Massa Acrílica, Massa Corrida e Gesso; Validade Mínima de 18 Meses a Partir do Recebimento; Deverá Ser Entregue o Boletim Técnico e Fispg Da Tinta; Conforme Norma de Especificação Abnt Nbr 15079 e Norma de Classificação Abnt Nbr 11702 Tipo 4.5.1;</t>
   </si>
   <si>
-    <t>Tinta Latex; Desempenho Premium, Tipo Acrílica; Composição à Base de Resina Acrílica, Coalescentes, Pigmentos Ativos, Cargas Inertes, Aditivos; Microbicidas Não Metálicos e Água; Diluível Em Água; Rendimento 200 a 320 M2?/galão/demão (embalagem 138]), Viscosidade 100 Uk, Peso Específico — 1,260  G/cm?3;  Voc (compostos — Orgânicos — Voláteis) Aprox. 2,0 G/I; Sólidos/peso de 30,0 a 50,0%; Acabamento Fosco; Na Cor Marfim Notação Ral 1014; para Superfícies Externas e Internas de Alvenaria, Massa Corrida, Massa Acrílica, Gesso, Texturas; Fibrocimento; Validade de 24 Meses a Partir Da Entrega; Conforme Norma de Especificação Abnt Nbr 15079 e Norma de Classificação Abnt Nbr 11702 Tipo 4.5.1</t>
+    <t>Tinta Latex; Desempenho Premium, Tipo Acrílica; Composição à Base de Resina Acrílica, Coalescentes, Pigmentos Ativos, Cargas Inertes, Aditivos; Microbicidas Não Metálicos e Água; Diluível Em Água; Rendimento 200 a 320 M2?/galão/demão (embalagem 138]), Viscosidade 100 Uk, Peso Específico 1,260 G/cm?3; Voc (compostos Orgânicos Voláteis) Aprox. 2,0 G/I; Sólidos/peso de 30,0 a 50,0%; Acabamento Fosco; Na Cor Marfim Notação Ral 1014; para Superfícies Externas e Internas de Alvenaria, Massa Corrida, Massa Acrílica, Gesso, Texturas; Fibrocimento; Validade de 24 Meses a Partir Da Entrega; Conforme Norma de Especificação Abnt Nbr 15079 e Norma de Classificação Abnt Nbr 11702 Tipo 4.5.1</t>
   </si>
   <si>
     <t>Tinta Acrilico; Premium; Resina Acrilica Elastomerica Em Dispersao Aquosa; Base Agua; Rendimento de 15 a 21 M2/I; Isento de Metais Pesados; Acabamento Semibrilho; Cor Concreto (munsell 5y 6/2); para Interior e Exterior; Validade 36 Meses</t>
   </si>
   <si>
-    <t>Tinta Esmalte para Construcao Civil; Sintetico; para Para Superficies de Madeira e Metali! a Base de Solvente; Rendimento de Ate 20m2 Por Demao, Tempo de Secagem Final de 18h; Na Cor Preta; Acabamento Fosco; Diluicao Em Aguarras; Conforme . Conforme Classificacaoo Norma —Abnt Nbr 11702 Tipo 4.2.2.1</t>
+    <t>Tinta Esmalte para Construcao Civil; Sintetico; para Para Superficies de Madeira e Metali! a Base de Solvente; Rendimento de Ate 20m2 Por Demao, Tempo de Secagem Final de 18h; Na Cor Preta; Acabamento Fosco; Diluicao Em Aguarras; Conforme Conforme Classificacaoo Norma Abnt Nbr 11702 Tipo 4.2.2.1</t>
   </si>
   <si>
     <t>Tinta Esmalte para Construcao Civil; Sintetico; para Superfiícies Internas e Externas;s a Base de Resina Alquidica; Rendimento Minimo de 70Om2/demao, Viscosidade 74-79uk,voc 487,83g/l,peso Específico 0,910-1,110g/cm3; Na Cor Platina (pantone 427c); Acabamento Em Alto Brilho; Linha Premium; Conforme Nbr 11702/15311/15314/15315</t>
   </si>
   <si>
-    <t>Tinta Esmalte para Construcao Civil; Premium; para Superficies de Metal e Madeira; a Base de Água, Resina Acrílica — Modificada, Pigmentos Orgânicos e Inorgânicos, Cargas Minerais — Inertes;: — Coalescentes, Espessantes; Na Cor Amarelo Ouro, Rendimento de 75m2/demão; Acabamento Brilhante:;: Com Ficha Técnica e Ficha Fispq do Produto, Prazode Validade 36  Meses; Conforme Abnt / Nbr 11702, Tipo 4,2.2.1 Ou Superior</t>
+    <t>Tinta Esmalte para Construcao Civil; Premium; para Superficies de Metal e Madeira; a Base de Água, Resina Acrílica Modificada, Pigmentos Orgânicos e Inorgânicos, Cargas Minerais Inertes;: Coalescentes, Espessantes; Na Cor Amarelo Ouro, Rendimento de 75m2/demão; Acabamento Brilhante:;: Com Ficha Técnica e Ficha Fispq do Produto, Prazode Validade 36 Meses; Conforme Abnt / Nbr 11702, Tipo 4,2.2.1 Ou Superior</t>
   </si>
   <si>
     <t>Tinta Esmalte para Construcao Civil; Sintetico, Desempenho Premium, Diluicao Em Agua, Sem Cheiro; para Uso Externo e Interno; a Base de Resina Acrilica Modificada, Pigmentos, Microbicidas Nao Metalicos, Outros Aditivos e Agua; Rendimento Minimo de 55m2/galao/demao, viscosidadeentre 75 a 85uUuk; Na Cor Marfim Notacao Ral 1014 (comercialmente Marfim 0668); Acabamento Brilhante, Secagem Rapida Ao Toque de Nomaximo 1 Hora,devendo Apresentar a Ficha Tecnica; e Ficha Fispq do Produto, Com Prazo de Validade Minimo 24 Meses a Partir do Recebimento; Conforme Conforme Norma de Classificacao Abnt Nbr 11702 Tipo 4.2.1.2 Ou Superior</t>
   </si>
   <si>
-    <t>Tubo; Pvc Rigido; 25 Mm; Soldavel, Ser Utilizado Em  Instalacoes Prediais de Agua Fria; Marrom; Nbr 5648</t>
+    <t>Tubo; Pvc Rigido; 25 Mm; Soldavel, Ser Utilizado Em Instalacoes Prediais de Agua Fria; Marrom; Nbr 5648</t>
   </si>
   <si>
     <t>Bloco Vazado de Concreto; Tipo Estrutural; Medindo (19x19x39)cm (lxaxc); Classe A, Com Funcao Estrutural; para Uso Em Elementos de Alvenaria Acima do Nivel do Solo; Resistência a Compressao de 8,0 Mpa; Conforme Norma Nbr/abnt 6136</t>
   </si>
   <si>
-    <t>Manta Impermeabilizante; a Base de Asfalto Modificado; Com Polímeros Elastométricos (el); Com Estrutura de Não Tecido de Filamentos de Poliéster, Tipo lii; Com Acabamento Em Alumínio Na Face Exposta; Com Largura de 10 M, Espessura Mínima de 4 Mm; C/ Absorcao Max. de 1,5 %; Com Flexibilidade a Bx. Temp.de -5ºc (mínima); Com Ponto de — Amolecimento Entre  95ºc (escorrimento  Mínimo), Fabricada Conforme Norma Abnt Nbr 9952</t>
+    <t>Manta Impermeabilizante; a Base de Asfalto Modificado; Com Polímeros Elastoméricos (el); Com Estrutura de Não Tecido de Filamentos de Poliéster, Tipo lii; Com Acabamento Em Alumínio Na Face Exposta; Com Largura de 10 M, Espessura Mínima de 4 Mm; C/ Absorcao Max. de 1,5 %; Com Flexibilidade a Bx. Temp.de -5ºc (mínima); Com Ponto de Amolecimento Entre 95ºc (escorrimento Mínimo), Fabricada Conforme Norma Abnt Nbr 9952</t>
   </si>
   <si>
     <t>Primer; Composto Por Solução Asfáltica Base Solvente, Primeira Qualidade; Na Cor Preta; para Aderir Mantas Asfálticas; Conforme Norma Abnt Nbr 9686</t>
   </si>
   <si>
-    <t>Telha; de Aco Galvalume; Tipo Trapezoidal — Perfil' Tr40, Sem Pintura; Medindo (4,80 x 0,98 x 1,05)m (c x | Util x | Total), Com Espessura de 0,685 Mm; Conforme Normas Nbr/abnt e Legislacao Vigentes</t>
+    <t>Telha; de Aco Galvalume; Tipo Trapezoidal Perfil Tr40, Sem Pintura; Medindo (4,80 x 0,98 x 1,05)m (c x | Util x | Total), Com Espessura de 0,685 Mm; Conforme Normas Nbr/abnt e Legislacao Vigentes</t>
   </si>
   <si>
     <t>Parafuso para Telhas; de Aco Baixo Carbono, Cementado e Temperado; Galvanizado; Autobrocante; Sextavada; Diametro de (1/4" x 3/4"); Comprimento de 20mm</t>
@@ -634,10 +634,10 @@
     <t>Perfil u Enrijecido; Aco; Espessura 3mm; Altura Da Alma 75mm; Altura Da Aba 40mm; Altura do Elemento Enrijecido 1,5mMm; Comprimento 6m; Acabamento Natural; para Vigamento Da Construcao</t>
   </si>
   <si>
-    <t>Tubo Quadrado; de Aco Metalon; Medindo 100 Mm x 100 Mm; Com Espessura de 3mm; Tipo Liso; Devendo —“Ser Entregue Com Acabamento Natural</t>
-  </si>
-  <si>
-    <t>Areia; Media; Com Limite de Porcentagem de Mat. Nocivo Igual a 1,5%; C/limite de Porcentagem de Mat. Carbonosos Igual a 1%; C/limite de % de Mat. Pulverulentos Igual a 5%; a Areia Sera Fornecida C/nome do Produtor,vol.ap., Fornecedor Com  Cadastro No Cadminerio, Proveniente de Agua Doce</t>
+    <t>Tubo Quadrado; de Aco Metalon; Medindo 100 Mm x 100 Mm; Com Espessura de 3mm; Tipo Liso; Devendo Ser Entregue Com Acabamento Natural</t>
+  </si>
+  <si>
+    <t>Areia; Media; Com Limite de Porcentagem de Mat. Nocivo Igual a 1,5%; C/limite de Porcentagem de Mat. Carbonosos Igual a 1%; C/limite de % de Mat. Pulverulentos Igual a 5%; a Areia Sera Fornecida C/nome do Produtor,vol.ap., Fornecedor Com Cadastro No Cadminerio, Proveniente de Agua Doce</t>
   </si>
   <si>
     <t>Pedra Britada; Numero 02; Formato Pontiagudo; Peso Específico 1.330kg/m3; Diâmetro Máximo de 32,0 Mm; Módulo de Finura de 7,68 e Abrasão Los Angeles De34% de Desgaste; Fornecedor Com Cadastro No Cadminerio, Conforme Normas Abnt/nbr 7211 e Nm 248</t>
@@ -646,13 +646,13 @@
     <t>Forro; de Pvc; Medindo 8m x 20cm x 8mm (compxlargxesp); Na Cor Branca, Acabamento Brilhante</t>
   </si>
   <si>
-    <t>Motor Eletrico para Portao; Pivotante Duplo, Kit Lados Direito e Esquerdo; Monofasico, 220v; 1/3 Cv, Forca de Arraste 50 Kgf, Corrente (a) 2,8/1,7, Capacitor 33/12 Uf; Velocidade 15 M/min, Tempo de Abertura 12 Seg; Kit Instalacao Acionador do  Motori; Central Comando, Peso Portao Ate 500 Kg, Carenagem Polimetro Uv; Central de Comando Com Controle Remoto, Frequencia433,92 Mhz e Alcance Minimo de 30m; Com Garantia de 12 Meses No Minimo</t>
+    <t>Motor Eletrico para Portao; Pivotante Duplo, Kit Lados Direito e Esquerdo; Monofasico, 220v; 1/3 Cv, Forca de Arraste 50 Kgf, Corrente (a) 2,8/1,7, Capacitor 33/12 Uf; Velocidade 15 M/min, Tempo de Abertura 12 Seg; Kit Instalacao Acionador do Motori; Central Comando, Peso Portao Ate 500 Kg, Carenagem Polimetro Uv; Central de Comando Com Controle Remoto, Frequencia433,92 Mhz e Alcance Minimo de 30m; Com Garantia de 12 Meses No Minimo</t>
   </si>
   <si>
     <t>Motor Eletrico para Portao; Deslizante;: Monofasico; 220v; 3/4 Hp; Com Kit de Intalacao do Acionador do Motor, 10 (dez) Metros de Cremalheira; Cenitral de Comando de Entrada e Saida, Com 02 (dois) Controle Remoto; Com Garantia de No Minimo 12 Meses</t>
   </si>
   <si>
-    <t>Botao de Comando; Pulsador, Nao Iluminado, Aro e Botao Na Cor Preta, Diametro — de Furacao 22,5mm, 2na; Grau de Protecao Ip65, Conforme Nbr lec 60947-5-1,capacidade Dos Contatos Abertura 3a/240v</t>
+    <t>Botao de Comando; Pulsador, Nao Iluminado, Aro e Botao Na Cor Preta, Diametro de Furacao 22,5mm, 2na; Grau de Protecao Ip65, Conforme Nbr lec 60947-5-1,capacidade Dos Contatos Abertura 3a/240v</t>
   </si>
   <si>
     <t>Serra Eletricai Serra Marmore; Potencia Minima 1400w; Rotacao Sem Carga 12000 a 13000rpm; Diametro do Disco 125mm, Capacidade de Corte Min 38mMm a 90 Graus; Tensao 220v; Pesando No Maximo 3kg; Acompanha Chave de Boca e Chave Hexagonal para Troca do Disco, Garantia Minima 1 Ano</t>
@@ -661,7 +661,7 @@
     <t>Furadeira; Corpo Metalico e Plastico de Alta Resistencia; Tipo de Impacto - Com Capacidade de Perfurar Concreto 30/20 Mm - Aco 16/10 Mm - Madeira 50/80 Mm; Com Mandril 5/8]- 16 Mm; e Potencia de No Minimo 900 Watts - 02 Velocidades; Rotacao de 645/1400 Min-1;: Na Voltagem 220 V; Com Capacidade para Impacto +/- 6240/13600 P/min. Comutador de Troca de Rotacao Ou Impacto - Embreagem de Seguranca - Punho Pa; Interruptor Bipolar Com Trava - Acompanha Empunhadeira Auxiliar - Certificado de Garantia e Manual; Acondicionado de Forma Apropriada, de Modo a Garantir Seu Perfeito Recebimento</t>
   </si>
   <si>
-    <t>Esmerilhadeira; Tipo Angular 4,1/2",dimensoes Aproximadas de 77 X263 x 104 MM = | xc x A; Tipo Eletrica  Com Fio, 220  Volts, Interruptor - Bloqueavel; Potencia Nominal Absorvida de No Minimo 710w; Rotacao 12.000 R.p.m.; Peso Aproximado de De 1,7 Kg; Diametro do Disco = 115 Mm, Eixo M14; Acompanha Chave de Aperto,flange de  Apoio,porcadeaperto,vcapa de Protecao,punho Auxiliar; e Manual; Acondicionada de Forma Adequada Com Garantia Da Fabricante 12 Meses</t>
+    <t>Esmerilhadeira; Tipo Angular 4,1/2",dimensoes Aproximadas de 77 X263 x 104 MM = | xc x A; Tipo Eletrica Com Fio, 220 Volts, Interruptor Bloqueavel; Potencia Nominal Absorvida de No Minimo 710w; Rotacao 12.000 R.p.m.; Peso Aproximado de De 1,7 Kg; Diametro do Disco = 115 Mm, Eixo M14; Acompanha Chave de Aperto,flange de Apoio,porcadeaperto,vcapa de Protecao,punho Auxiliar; e Manual; Acondicionada de Forma Adequada Com Garantia Da Fabricante 12 Meses</t>
   </si>
   <si>
     <t>Parafusadeira; Em Corpo Em Plastico de Alta Resistencia; Tipo Parafuasadeira/furadeira; de Impacto, Bateria de 20 Veolts; Dimensoes Aproximadas 40.5 x 11.5 x 252 Mm (c x | x A); Linha Profissional; Torque de No Minimo 95 Nm; Mandril de 1/2";: Baterias 20v; Rotacao Minima Por Minuto O-550 e 1350 e 0-2000 Rpm; Velocidade Variavel e Reversivel,.capacidade de Perfuracao: Metal 13mm ,madeira 35mm; Pesando Aproximadamente 1,5 Kg; Com Garantia Minima de Garantia Minima 12 Meses; Acomp. 2 Baterias 20v ,1 Carregador de Bateria e 1 Maleta;: Com Luz de Led,vcom Trava de Seguranca do Gatilho</t>
@@ -673,7 +673,7 @@
     <t>Intercomunicador; para Atendimento; Em Aluminio Com Pintura Automotiva; Com Controle de Volume Tx; Com Ajuste de Volume Manual; Com Potência Em Pmpo de No Minimo 50w; Microfone Flexivel Com No Minimo de 45 Cm de Comprimento; Acompanha Fonte de Alimentação para 110/220 v para Fonte 12 V; Com Aprox. 55 Mm de Esp No Corpo Interno, 35 Mm de Esp. No Corpo Externo e Diâmetro de 110 Mm; Acompanha Manual de Instrução Em Português; Garantia Minima de 12 Meses</t>
   </si>
   <si>
-    <t>Bebedouro — Eletrico; de  Tipo Industria;: — Gabinete Em  Aco Inoxidavel Aisi 304 Com Isolamento Em Poliuretano; Com 03 Torneiras Com  Acionamento Rapido e Acabamento Cromado; Sendo Torneiras Removiveis e Desmontaveis para Higienizacao; Reservatorio Em Aco Inoxidavel Aisi 304, Capacidade para 100 Litros; Com Serpentina Em Aco Inoxidavel, Isolamento Em Poliuretano, Compressor Hermetico de 1/4 Hp; Medindo Aproximadamente (1520x720x420)mm=(axlxp); — para Uso Externo e Interno, Grau de Protecao Ipx4; Com Tensao de Alimentacao de 220v; Certificacao Compulsoria do Inmetro; e Garantia de No Minimo 12 Meses</t>
+    <t>Bebedouro Eletrico; de Tipo Industria;: Gabinete Em Aco Inoxidavel Aisi 304 Com Isolamento Em Poliuretano; Com 03 Torneiras Com Acionamento Rapido e Acabamento Cromado; Sendo Torneiras Removiveis e Desmontaveis para Higienizacao; Reservatorio Em Aco Inoxidavel Aisi 304, Capacidade para 100 Litros; Com Serpentina Em Aco Inoxidavel, Isolamento Em Poliuretano, Compressor Hermetico de 1/4 Hp; Medindo Aproximadamente (1520x720x420)mm=(axlxp); para Uso Externo e Interno, Grau de Protecao Ipx4; Com Tensao de Alimentacao de 220v; Certificacao Compulsoria do Inmetro; e Garantia de No Minimo 12 Meses</t>
   </si>
   <si>
     <t>Bebedouro Eletrico; de Coluna, para Garrafao de 20|l: Gabinete Em Aco Com Pintura Epoxi Em Po, Na Cor Branca; Com Termostato Externo e Frontal: Com 02 Torneiras, de Cores Diferentes para Indicar Agua Gelada e Natural! Sendo Removiveis e Desmontaveis para Higienizacao; Medindo Aproximadamente (98 x 32 x 35)cm (a x | x P); para Uso Interno; Com Tensao de Alimentacao de 110/220v (bivolt), Potencia 145w, Frequencia de 60hz, Capacidade Minima de 4l/h de Agua Gelada; Certificacao Compulsoria do Inmetro; e Garantia de 12 Meses</t>

--- a/DOWNLOADS/EDITAIS/U_380195_E_900232025_25-09-2025_09h00m/U_380195_E_900232025_25-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_380195_E_900232025_25-09-2025_09h00m/U_380195_E_900232025_25-09-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="233">
   <si>
     <t>Nº</t>
   </si>
@@ -466,58 +466,58 @@
     <t>Bebedouro Água Garrafão Bebedouro Água Garrafão Material: Abs (Copolímero De Acrilonitrila), Tipo: Elétrico De Coluna, Acabamento Externo: Pintura Eletrostática Em Epóxi Na Cor Branca, Capacidade: 20L, Voltagem: 220V, Características Adicionais: 2 Torneiras (Água Natural/Gelada) Cuba Aço Inox</t>
   </si>
   <si>
-    <t>Argamassa; Composição à Base de Cimento Portland, Agregados Minerais, Polímeros de Fixação, Aditivos Não-tóxico; para Fixação de Revestimentos Em Pisos Industriais, Com Tráfego Intenso, Porcelanato, Pisos Externos;s Na Cor Clinza, Argamassa Colante, Aditivada, Tipo Acili E; Validade de 180 Dias a Partir do Recebimento; Embalada Em Saco;</t>
-  </si>
-  <si>
-    <t>Aguarras; a Base de Solventes Alifaticos e Aromaticos, Isento de Benzeno, Alcool e Querosene; para Diluicaoo de Esmaltes Sinteticos, Tintas Oleo, Vernizes; Na Forma de Liquido Incolor, Inflamavel, Densidadede 0,75-0,80 G/cm? e Voc de 773-777 G/l; Acondicionado Em Embalagem Que Assegure àa Qualidade do Produto; Validade de 48 Meses Apos Data de Recebimento; Conforme Nbr/abnt 11702 Tipo 4.7./, Voc Din En 11890-1;</t>
+    <t>Argamassa; Composição à Base de Cimento Portland, Agregados Minerais, Polímeros de Fixação, Aditivos Não-tóxico; para Fixação de Revestimentos Em Pisos Industriais, Com Tráfego Intenso, Porcelanato, Pisos Externos; Na Cor Cinza, Argamassa Colante, Aditivada, Tipo Aciii E; Validade de 180 Dias a Partir do Recebimento; Embalada Em Saco;</t>
+  </si>
+  <si>
+    <t>Aguarras; a Base de Solventes Alifaticos e Aromaticos, Isento de Benzeno, Alcool e Querosene; para Diluicao de Esmaltes Sinteticos, Tintas Oleo, Vernizes; Na Forma de Liquido Incolor, Inflamavel, Densidadede 0,75-0,80 G/cm³ e Voc de 773-777 G/l; Acondicionado Em Embalagem Que Assegure a Qualidade do Produto; Validade de 48 Meses Apos Data de Recebimento; Conforme Nbr/abnt 11702 Tipo 4.7.7, Voc Din En 11890-1;</t>
   </si>
   <si>
     <t>Barra Chata; de Aco Carbono Astm a - 36; Medindo 2" x 1/2"; para Ser Utilizada Em Serralheria; Comprimento de 6 Metros;</t>
   </si>
   <si>
-    <t>Barra Macica Metais Ferrosos; de Aco Carbono; No Formato Redondo; 4 do Tipo Lisa; Medindo Diametro 25mm; Devendo Ser Entregue Natural, Sem Acabamento;</t>
+    <t>Barra Macica Metais Ferrosos; de Aco Carbono; No Formato Redondo; do Tipo Lisa; Medindo Diametro 25mm; Devendo Ser Entregue Natural, Sem Acabamento;</t>
   </si>
   <si>
     <t>Boia e Torneira para Caixa Dagua; de Plastica; para Ser Utilizada Em Cx. Dagua; Devendo Ser Entregue Varao de Metal; para Atender Bitola de 3/4 Pol.;</t>
   </si>
   <si>
-    <t>Broxa para Pinturai de Pelo Sintético, Formato Retangular; Com Cabo de Madeira; Medindo Tamanho Médio;</t>
+    <t>Broxa para Pintura; de Pelo Sintético, Formato Retangular; Com Cabo de Madeira; Medindo Tamanho Médio;</t>
   </si>
   <si>
     <t>Campainha Residencial; Plastico Na Base e Metal Na Tampa; Quadrada, Com Peso Medio 540 Gramas, Tipo Cigarra; Pressao Sonora de Ate 110 Db/m; 127/220vca Bivoltt, Acompanha Parafuso para Instalacao e Certificado de Garantia;</t>
   </si>
   <si>
-    <t>Cantoneira de Abas lIguais; de Ferro; Medindo (3/4" x 1/4"); para Ser Utilizada Em Serralheria</t>
-  </si>
-  <si>
-    <t>Cimento Portland Composto (cp Il-e); Composto de Escória Granulada de Alto Forno; Com Resistencia de 32 Mpa; Faixa de Porcent. Em Peso de Clinquertsulf.calcio 94-56%; e Faixa de Porcentagem Em Peso de Escoria de 6-34%; C/ Faixa de Porcentagem de Material Carbonatico de 0-10%; Embalagem Em Saco 50 Kg Tipo "kraft"; Com Limite de Porcentagem de Residuo Insoluvel Menor Ou Igual a 2,5%; Com Limite de Porcentagem de Perda Ao Fogo Menor Ou Igual a 6,5%; Com Limite de Porcentagem de Oxido de Magnesio Menor Ou Igual a 6,5%; Com Limite de Porcentagem de Trioxido de Enxofre Menor Ou Igual a 4%; Com Limite de Porcentagem de Anidrido Carbonico Menor Ou Igual a 5%; Com Limite de Tempo de Fim de Pega Menor Ou Igual a 10 Horas; Limite de Expansibilidade a Frio/quente Menor Ou Igual a 5 Mm; Limite de Tempo de Início de Pega Menor Ou (lIgua a 1 Hora; Normatizacao— Conforme — Norma Abnt Nbr 11578, Eb 208, Mb-1153. o Produto Deverá Vir Acompanhado Da Fispq Conforme Nbr 14725</t>
+    <t>Cantoneira de Abas Iguais; de Ferro; Medindo (3/4" x 1/4"); para Ser Utilizada Em Serralheria</t>
+  </si>
+  <si>
+    <t>Cimento Portland Composto (cp II-e); Composto de Escória Granulada de Alto Forno; Com Resistencia de 32 Mpa; Faixa de Porcent. Em Peso de Clinquer+sulf.calcio 94-56%; e Faixa de Porcentagem Em Peso de Escoria de 6-34%; C/ Faixa de Porcentagem de Material Carbonatico de 0-10%; Embalagem Em Saco 50 Kg Tipo "kraft"; Com Limite de Porcentagem de Residuo Insoluvel Menor Ou Igual a 2,5%; Com Limite de Porcentagem de Perda Ao Fogo Menor Ou Igual a 6,5%; Com Limite de Porcentagem de Oxido de Magnesio Menor Ou Igual a 6,5%; Com Limite de Porcentagem de Trioxido de Enxofre Menor Ou Igual a 4%; Com Limite de Porcentagem de Anidrido Carbonico Menor Ou Igual a 5%; Com Limite de Tempo de Fim de Pega Menor Ou Igual a 10 Horas; Limite de Expansibilidade a Frio/quente Menor Ou Igual a 5 Mm; Limite de Tempo de Inicio de Pega Menor Ou Igual a 1 Hora; Normatizacao Conforme Norma Abnt Nbr 11578, Eb 208, Mb-1153. o Produto Deverá Vir Acompanhado Da Fispq Conforme Nbr 14725</t>
   </si>
   <si>
     <t>Adesivo para Tubo de Pvc; a Base de Resina de Pvc, Acetona, Metil-etil-cetona, Cicloexanona e Solventes Organicos; Utilizado Na Soldagem de Tubos e Conexoes de Pvc Nbr 5648 (agua Fria); Acondicionado Em Frasco de 175 g Com Pincel Aplicador</t>
   </si>
   <si>
-    <t>Caixa de Descarga; Em Pvc Rigido; No Formato Retangular,vna Cor Branca; Com Capacidade para 10 Litros: Devendo o Material Vir Acompanhado de Engate e Pecas de Fixacao</t>
+    <t>Caixa de Descarga; Em Pvc Rigido; No Formato Retangular,na Cor Branca; Com Capacidade para 10 Litros; Devendo o Material Vir Acompanhado de Engate e Pecas de Fixacao</t>
   </si>
   <si>
     <t>Lubrificante Aerosol; Liquido, Desengripante, Multiuso; Utilizado Em para Neutralizar Oxidações e Proteção de Partes Cromadas, Eletrodomésticos, Dobradiças, Armas, Motos; Composto de Blenda de Oleo Lubrificante, Aditivo Antioxidante,aditivo Anticorrosivo, Essencia; Butano e Propano Como Propelente, Antioxidante Eliminador de Agua Da Superficie; Propriedades Densidade(g/cm3) 0,850-0,900, Ponto de Fulgor ºc, Min. 150, Viscosidade (40ºc, Cst) 8,5-15; Cor Levemente Amarelada, Odor Caracteristico de Coco; Embalado Em Validade de 24 Meses</t>
   </si>
   <si>
-    <t>Disco de Corte;: de Carbeto de Silicio; Diametro de 12";: Furo Central 7/8 Polegada (22.2mm); Espessura 3 Mm; Com 2 Telas de Protecao; Aplicação No Corte de Chapas, Tubos, Barras e Superfícies Em Geral; Conforme Abnt - Nbr15230, Ansi B7.1 En 12413 Alémda Pe-033</t>
-  </si>
-  <si>
-    <t>Rebolo; Tipo 41 - Disco de Corte; 7" x 1/8" x 7/8" (180,0 x 3,2 x 22,2 Mm); Grao Abrasivo Oxido de Aluminio: Com Duas Telas de Reforco Em Fibra de Vidro; Conforme Nbr 15230; para Corte de Materiais Ferrosos; Com Validade de 1 Ano a Partir do Recebimento</t>
+    <t>Disco de Corte; de Carbeto de Silicio; Diametro de 12"; Furo Central 7/8 Polegada (22.2mm); Espessura 3 Mm; Com 2 Telas de Protecao; Aplicação No Corte de Chapas, Tubos, Barras e Superfícies Em Geral; Conforme Abnt - Nbr15230, Ansi B7.1 En 12413 Alémda Pe-033</t>
+  </si>
+  <si>
+    <t>Rebolo; Tipo 41 - Disco de Corte; 7" x 1/8" x 7/8" (180,0 x 3,2 x 22,2 Mm); Grao Abrasivo Oxido de Aluminio; Com Duas Telas de Reforco Em Fibra de Vidro; Conforme Nbr 15230; para Corte de Materiais Ferrosos; Com Validade de 1 Ano a Partir do Recebimento</t>
   </si>
   <si>
     <t>Disco de Corte; Em Aco Liga Especial, Tempera Total No Corpo, Dureza Diferenciada Na Area de Corte; Diametro 4.3/8 Polegadas 110 Mm; Furo Central 20 Mm; Espessura 2 Mm; Rotacao Max. 15.000 Rpm; Diamantado; Corte a Seco para Granitos, Marmores, Basalto, Ardosia e Pedras; Seguindo En 13236</t>
   </si>
   <si>
-    <t>Ducha Fria; de Pvc; No Formato Circular; Na Dimensao 4 Polegadas; Tubo de Ligacao de Pvc Diametro 1/2" —“Comprimento30 Cm Com Registro Direto No Cano Da Ducha; Sem Saida para Chuveirinho de Mao</t>
-  </si>
-  <si>
-    <t>Eletrodo de Solda; Composto de 0,07% C, 0,5% S, 1,1% Mrn; Bitola 3,25mm e Comprimento 350mm; Tipo Vareta, Norma Asme Sfa 5.1 E7018; para Soldagem de Estruturas Em Geral</t>
-  </si>
-  <si>
-    <t>Eletrodo de Solda; 0,06% Carbono, 0,3% Silicio, 0,5% Manganes; Bitola 2,5mm;,tipo Vareta, 350mMm Comprimento; Tipo Vareta, Todas As Posicoes para Soldagem, Embalado Em Caixa, Aws A5.1 - E6013; para Soldagem de Aco Baixo e Medio Carbono</t>
+    <t>Ducha Fria; de Pvc; No Formato Circular; Na Dimensao 4 Polegadas; Tubo de Ligacao de Pvc Diametro 1/2" Comprimento30 Cm Com Registro Direto No Cano Da Ducha; Sem Saida para Chuveirinho de Mao</t>
+  </si>
+  <si>
+    <t>Eletrodo de Solda; Composto de 0,07% C, 0,5% S, 1,1% Mn; Bitola 3,25mm e Comprimento 350mm; Tipo Vareta, Norma Asme Sfa 5.1 E7018; para Soldagem de Estruturas Em Geral</t>
+  </si>
+  <si>
+    <t>Eletrodo de Solda; 0,06% Carbono, 0,3% Silicio, 0,5% Manganes; Bitola 2,5mm,tipo Vareta,350mm Comprimento; Tipo Vareta, Todas As Posicoes para Soldagem, Embalado Em Caixa, Aws A5.1 - E6013; para Soldagem de Aco Baixo e Medio Carbono</t>
   </si>
   <si>
     <t>Eletrodo de Solda; Composto de Carbono, Silicio e Manganes; Com Bitola de 3,25mm; Tipo Vareta, E-6013; para Soldagem e Ponteamento</t>
@@ -526,13 +526,13 @@
     <t>Cabo Eletrico; de Cobre, Em Conformidade Com a Nbr 247-3; Encordamento Classe 4; Secao Nominal Condutor 2,5mm2; Bwf/b; Isolacao Pvc/a 750 V, 70 Graus Celsius, Sem Cobertura; Tipo Flexivel; Na Cor Azul</t>
   </si>
   <si>
-    <t>Cabo Eletrico; de Cobre;: Com Secao de 25 Mm2; Capa Termoplastica Anti-chama; Tensao de Isolamento de 450/750v; Cabo Tipo Flexivel: Na Cor Preta, Com Selo Inmetro; Norma Nbr 6148</t>
-  </si>
-  <si>
-    <t>Cabo Eletrico; de Cobre, Certificado Inmetro: Em Conformidade Coma Nbr 247-3; Encordamento Classe 4; Secao Nominal Condutor Com Area de Secao 4,0mm2; Bwf/b; Isolacao Pvcla 750 V, 70 Graus Celsius, Sem Cobertura; Tipo Flexiveli: Na Cor Azul</t>
-  </si>
-  <si>
-    <t>Fio Eletrico; Instalacoes Eletricas; Material do Condutor Cobre Eletrolitico, Tempera Mole, Classe Encordoamento 1; Secao Nominal Condutor 4mm2; Camada lIsolante Tensao Isolacao 450/750v; Classe de Temperatunra Em Regime Permanente 70ºc; Materia Da Cobertura Pvc Bwf Antichama, Cor Preta; Conforme Norma Tecnica Nbr Nm 247-3 e Nm 280, Com Certificacao Compulsoria Inmetro</t>
+    <t>Cabo Eletrico; de Cobre; Com Secao de 2,5 Mm2; Capa Termoplastica Anti-chama; Tensao de Isolamento de 450/750v; Cabo Tipo Flexivel; Na Cor Preta, Com Selo Inmetro; Norma Nbr 6148</t>
+  </si>
+  <si>
+    <t>Cabo Eletrico; de Cobre, Certificado Inmetro; Em Conformidade Coma Nbr 247-3; Encordamento Classe 4; Secao Nominal Condutor Com Area de Secao 4,0mm2; Bwf/b; Isolacao Pvc/a 750 V, 70 Graus Celsius, Sem Cobertura; Tipo Flexivel; Na Cor Azul</t>
+  </si>
+  <si>
+    <t>Fio Eletrico; Instalacoes Eletricas; Material do Condutor Cobre Eletrolitico, Tempera Mole, Classe Encordoamento 1; Secao Nominal Condutor 4mm2; Camada Isolante Tensao Isolacao 450/750v; Classe de Temperatura Em Regime Permanente 70°c; Material Da Cobertura Pvc Bwf Antichama, Cor Preta; Conforme Norma Tecnica Nbr Nm 247-3 e Nm 280, Com Certificacao Compulsoria Inmetro</t>
   </si>
   <si>
     <t>Lixa para Construcao Civil; de Oxido de Aluminio, Com Costado de Pano; para Ferro e Metais Em Geral; Grao 80; Em Folha; Medindo (275x225)mm; para Preparacao de Superficie Metalica para Pintura; Conforme Normas Nbr/abnt Vigentes</t>
@@ -541,46 +541,46 @@
     <t>Neutralizador de Ferrugem; a Base de Primer Convertedor de Ferrugem, Liquido Viscoso; Concentracao de Solvente (densidade a 25ºc) 1,0-1,1 G/cm3, Ph 3,5-4,2; Fundo Preto; Dispensa a Necessidade de Remocao Da Ferrugem</t>
   </si>
   <si>
-    <t>Plafonier; de Polipropileno, Soquete de Porcelana E-27, Contatos Em Latao: No Formato Redondo, Na Cor Branca; Com Diametro de 14,6 Cm e Altura de 4.8 Cm; para Ser Utilizado Como Base para Lampada 200w, Tensao 220v; Devendo Ser Entregue Com Travessa para Fixaçãao No Teto, Com Parafusos Incluso</t>
+    <t>Plafonier; de Polipropileno, Soquete de Porcelana E-27, Contatos Em Latao; No Formato Redondo, Na Cor Branca; Com Diametro de 14,6 Cm e Altura de 4.8 Cm; para Ser Utilizado Como Base para Lampada 200w, Tensao 220v; Devendo Ser Entregue Com Travessa para Fixaçao No Teto, Com Parafusos Incluso</t>
   </si>
   <si>
     <t>Trincha; Tipo Dupla; Com Largura de 2 Pol; Cerda Na Cor Branca; Cabo de Plastico Amarelo; para Aplicar Verniz e Stain</t>
   </si>
   <si>
-    <t>Trincha; Tipo Dupla; Com Largura de 4 Polegadas (101mm), Comprimento Total (cabot+chapat+cerdas) de 246mm; Cerda Na Cor Preta, Comprimento de 55Mm e Espessura de 15mm; Cabo de Plastico, Cerda Natural, Chapa de Fixacao Das Cerdas de Aco, Adesivo Epoxi; para Aplicar Tinta Oleo e Esmalte Sintetico</t>
+    <t>Trincha; Tipo Dupla; Com Largura de 4 Polegadas (101mm), Comprimento Total (cabo+chapa+cerdas) de 246mm; Cerda Na Cor Preta, Comprimento de 55mm e Espessura de 15mm; Cabo de Plastico, Cerda Natural, Chapa de Fixacao Das Cerdas de Aco, Adesivo Epoxi; para Aplicar Tinta Oleo e Esmalte Sintetico</t>
   </si>
   <si>
     <t>Reator para Lampada Vapor Sodio; Tipo Eletromagnetico, para Uso Externo; Com Partida Rapida, Com Ignitor Incorporado; de 220v - Frequencia de Alimentação de 50 a 60hz; Com Fator de Potencia Maior Ou Igual a 0,93; Amplitude de Tensao do Ignitor de 3,0 Kv a 4,5 Kv; para Lampada de 400w; Em Perfeitas Condicoes; Nbr 14305</t>
   </si>
   <si>
-    <t>Registro de Esfera; de Latao; Na Cor Natural do Latao; Diametro Nominal de 3/4": Rosca Interna; Acionamento Tipo Borboleta; para Ser Instalado Em Rede Hidraulica, Temperatura Maxima de 60 Graus; Conforme Normas Nbr/abnt Vigentes; Garantia de 12 Meses</t>
-  </si>
-  <si>
-    <t>Registro de Pressao; Fabricado Em Lliga de Cobre; Modelo Com Borboleta: Com Diâmetro Nominal de 3/4" (aprox. 20 Mm); para Ser Utilizado Em Instalações Prediais de Água; Acionamento Por Borboleta; Conexão de Entrada Com Rosca Interna, Conexão de Saída Com Rosca Externa; Fabricação Conforme Norma Abnt Nbr 15704, Rosca Conforme Abnt Nbr Nm Iso 7-1</t>
-  </si>
-  <si>
-    <t>Rejunte; de Cimento Portland, Agregados Minerais, Pigmentos Inorgânicos, Polímeros e Aditivos; Tipo l; Na Cor Branca; para Absorver Dilatações Térmicas, Juntas de 2 a 10 Mm; Embalado Em Saco Plástico; Conforme Norma Abnt Nbr 14992</t>
-  </si>
-  <si>
-    <t>Rejunte; de Cimento Portland, Agregados Minerais, Pigmentos Inorganicos, Polimeros e Aditivos; do Tipo li, Resinado, Siliconado, Antimofo e Acabamento Superfino, para Juntas de 1 a 10mm; Na Cor Cinza Cimento; para Areas Interna e Externa; Embalado Em Saco Plastico; Conforme Norma Nbr/abnt 14.992</t>
-  </si>
-  <si>
-    <t>Rejunte; de Cimento Portland, Agregados Minerais, Pigmentos Inorganicos, Polimeros e Aditivos; Tipo li; Na Cor Bege; para Absorver Dilatacoes Termicas, Juntas de 2 a 10 Mm; Acondicionado Em Saco Plastico Apropriado Que Garanta a Integridade do Produto; Conforme Norma Abnt Nbr 14992</t>
-  </si>
-  <si>
-    <t>Revestimento Ceramico; Azulejo; No Formato Quadrado, Medindo (20x20)cm; Com Espessura de 6,0mm; Absorção de Água Grupo b li; Carga de Ruptura Classe de Atrito |; Resistencia a Manchamento Classe 3; Resistencia Quimica Gb/glb; Acabamento Liso, Esmaltado; Cor Branca; Indicado para Banheiros, Cozinhas e Piscinas; Conforme Norma Nbr/abnt Vigentes</t>
-  </si>
-  <si>
-    <t>Revestimento Ceramico; Extrudado; 30cm x 3O0cm; Com Espessura 9mm; Absorção de Água Menor Que 3%; Resistencia Ao Manchamento Classe 5; Resistencia Quimica Igual Ou Maior a Gha; Acabamento Liso; Cor Cinza Claro; Indicado para Piso de Cozinha Industrial: Conforme Norma Vigente</t>
-  </si>
-  <si>
-    <t>Revestimento Ceramico; Azulejo; Formato Quadrado, Medindo (45 x 45)cm; Com Espessura Aproximada de 7,2mm; Absorção de Água Biib 6 à 10;: Pei 4; Resistencia a Manchamento Maior Ou Igual a 3; Resistencia Quimica Maior Ou Igual Glb; Liso Brilhante; Cor Branca; Indicado para Banheiros, Cozinhas e Piscinass Conforme Norma Conforme Norma Nbr/abnt Vigentes</t>
+    <t>Registro de Esfera; de Latao; Na Cor Natural do Latao; Diametro Nominal de 3/4"; Rosca Interna; Acionamento Tipo Borboleta; para Ser Instalado Em Rede Hidraulica, Temperatura Maxima de 60 Graus; Conforme Normas Nbr/abnt Vigentes; Garantia de 12 Meses</t>
+  </si>
+  <si>
+    <t>Registro de Pressao; Fabricado Em Liga de Cobre; Modelo Com Borboleta; Com Diâmetro Nominal de 3/4" (aprox. 20 Mm); para Ser Utilizado Em Instalações Prediais de Água; Acionamento Por Borboleta; Conexão de Entrada Com Rosca Interna, Conexão de Saída Com Rosca Externa; Fabricação Conforme Norma Abnt Nbr 15704, Rosca Conforme Abnt Nbr Nm Iso 7-1</t>
+  </si>
+  <si>
+    <t>Rejunte; de Cimento Portland, Agregados Minerais, Pigmentos Inorgânicos, Polímeros e Aditivos; Tipo Ii; Na Cor Branca; para Absorver Dilatações Térmicas, Juntas de 2 a 10 Mm; Embalado Em Saco Plástico; Conforme Norma Abnt Nbr 14992</t>
+  </si>
+  <si>
+    <t>Rejunte; de Cimento Portland, Agregados Minerais, Pigmentos Inorgânicos, Polimeros e Aditivos; do Tipo Ii, Resinado, Siliconado, Antimofo e Acabamento Superfino, para Juntas de 1 a 10mm; Na Cor Cinza Cimento; para Areas Interna e Externa; Embalado Em Saco Plastico; Conforme Norma Nbr/abnt 14.992</t>
+  </si>
+  <si>
+    <t>Rejunte; de Cimento Portland, Agregados Minerais, Pigmentos Inorgânicos, Polimeros e Aditivos; Tipo Ii; Na Cor Bege; para Absorver Dilatacoes Termicas, Juntas de 2 a 10 Mm; Acondicionado Em Saco Plastico Apropriado Que Garanta a Integridade do Produto; Conforme Norma Abnt Nbr 14992</t>
+  </si>
+  <si>
+    <t>Revestimento Ceramico; Azulejo; No Formato Quadrado, Medindo (20x20)cm; Com Espessura de 6,0mm; Absorção de Água Grupo b Iii; Carga de Ruptura Classe de Atrito I; Resistencia a Manchamento Classe 3; Resistencia Quimica Gb/glb; Acabamento Liso, Esmaltado; Cor Branca; Indicado para Banheiros, Cozinhas e Piscinas; Conforme Norma Nbr/abnt Vigentes</t>
+  </si>
+  <si>
+    <t>Revestimento Ceramico; Extrudado; 30cm x 30cm; Com Espessura 9mm; Absorção de Água Menor Que 3%; Resistencia Ao Manchamento Classe 5; Resistencia Quimica Igual Ou Maior a Gha; Acabamento Liso; Cor Cinza Claro; Indicado para Piso de Cozinha Industrial; Conforme Norma Vigente</t>
+  </si>
+  <si>
+    <t>Revestimento Ceramico; Azulejo; Formato Quadrado, Medindo (45 x 45)cm; Com Espessura Aproximada de 7,2mm; Absorção de Água Biib 6 à 10; Pei 4; Resistencia a Manchamento Maior Ou Igual a 3; Resistencia Quimica Maior Ou Igual Glb; Liso Brilhante; Cor Branca; Indicado para Banheiros, Cozinhas e Piscinas; Conforme Norma Conforme Norma Nbr/abnt Vigentes</t>
   </si>
   <si>
     <t>Camisa para Rolo de Pintura; Em Pele de Carneiro, Altura Da La 25 Mm, para Uso Em Parede Rugosa; Com Largura de 23 Cm</t>
   </si>
   <si>
-    <t>Rolo para Pintura; de Espuma de Poliester Amarelo: Med. 40 Mm; Com Altura de 35 Mm (diametro); Suporte de Plastico; Cabo Revest. de Cabo Revestido de Pvc</t>
+    <t>Rolo para Pintura; de Espuma de Poliester Amarelo; Med. 40 Mm; Com Altura de 35 Mm (diametro); Suporte de Plastico; Cabo Revest. de Cabo Revestido de Pvc</t>
   </si>
   <si>
     <t>Rolo para Pintura; de Espuma; Med. 15 Cm; Com Altura de 20 Mm,; Suporte Gaiola Sem Rosca; Suporte de Aco Galvanizado; Cabo Revest. de Pvc</t>
@@ -592,25 +592,25 @@
     <t>Tanque para Lavar Roupa; de Polipropileno Com Protecao Contra Luz Solar e Produtos Quimicos; No Formato Retangular; Com Dimensoes de Aproximadas de 47 x 31 Cm; Cuba Com Profundidade de 55 Cm; Fixacao Na Parede; Acompanha Kit de Fixacao Como Buchas, Parafusos Eválvula Inclusos; Capacidade 20 Lt</t>
   </si>
   <si>
-    <t>Tinta Latex; Desempenho Premium, Tipo Látex Vinil Acrílica para Parede; Composição à Base de Resina Acrílica, Polímeros Vinílicos, Pigmentos Ativos, Cargas Inertes; Coalescentes, Espessantes, Bactericidas e Fungicidas, Aditivos e Água; Solvente Base Água, Diluível Em Água Potável, Baixa Toxidade, Viscosidade de 100 Uk; Rendimento de 380 Mº/demão (embalagem 18J), Peso Específico Aprox. 1,40 G/cm?, Brilho (&amp;60ºc de 4 Ub; Voc (compostos Orgânicos Voláteis) de 6,40 G/l; Isenta de Metais Pesados; Acabamento Fosco Aveludado; Na Cor Branco Notação Ral 9010 (comercialmente Branco Neve); para Ambientes Externos e lInternos, Superfícies de Alvenaria, Reboco, Concreto, Fibrocimento, Texturas; Massa Acrílica, Massa Corrida e Gesso; Validade Mínima de 18 Meses a Partir do Recebimento; Deverá Ser Entregue o Boletim Técnico e Fispg Da Tinta; Conforme Norma de Especificação Abnt Nbr 15079 e Norma de Classificação Abnt Nbr 11702 Tipo 4.5.1;</t>
-  </si>
-  <si>
-    <t>Tinta Latex; Desempenho Premium, Tipo Acrílica; Composição à Base de Resina Acrílica, Coalescentes, Pigmentos Ativos, Cargas Inertes, Aditivos; Microbicidas Não Metálicos e Água; Diluível Em Água; Rendimento 200 a 320 M2?/galão/demão (embalagem 138]), Viscosidade 100 Uk, Peso Específico 1,260 G/cm?3; Voc (compostos Orgânicos Voláteis) Aprox. 2,0 G/I; Sólidos/peso de 30,0 a 50,0%; Acabamento Fosco; Na Cor Marfim Notação Ral 1014; para Superfícies Externas e Internas de Alvenaria, Massa Corrida, Massa Acrílica, Gesso, Texturas; Fibrocimento; Validade de 24 Meses a Partir Da Entrega; Conforme Norma de Especificação Abnt Nbr 15079 e Norma de Classificação Abnt Nbr 11702 Tipo 4.5.1</t>
-  </si>
-  <si>
-    <t>Tinta Acrilico; Premium; Resina Acrilica Elastomerica Em Dispersao Aquosa; Base Agua; Rendimento de 15 a 21 M2/I; Isento de Metais Pesados; Acabamento Semibrilho; Cor Concreto (munsell 5y 6/2); para Interior e Exterior; Validade 36 Meses</t>
-  </si>
-  <si>
-    <t>Tinta Esmalte para Construcao Civil; Sintetico; para Para Superficies de Madeira e Metali! a Base de Solvente; Rendimento de Ate 20m2 Por Demao, Tempo de Secagem Final de 18h; Na Cor Preta; Acabamento Fosco; Diluicao Em Aguarras; Conforme Conforme Classificacaoo Norma Abnt Nbr 11702 Tipo 4.2.2.1</t>
-  </si>
-  <si>
-    <t>Tinta Esmalte para Construcao Civil; Sintetico; para Superfiícies Internas e Externas;s a Base de Resina Alquidica; Rendimento Minimo de 70Om2/demao, Viscosidade 74-79uk,voc 487,83g/l,peso Específico 0,910-1,110g/cm3; Na Cor Platina (pantone 427c); Acabamento Em Alto Brilho; Linha Premium; Conforme Nbr 11702/15311/15314/15315</t>
-  </si>
-  <si>
-    <t>Tinta Esmalte para Construcao Civil; Premium; para Superficies de Metal e Madeira; a Base de Água, Resina Acrílica Modificada, Pigmentos Orgânicos e Inorgânicos, Cargas Minerais Inertes;: Coalescentes, Espessantes; Na Cor Amarelo Ouro, Rendimento de 75m2/demão; Acabamento Brilhante:;: Com Ficha Técnica e Ficha Fispq do Produto, Prazode Validade 36 Meses; Conforme Abnt / Nbr 11702, Tipo 4,2.2.1 Ou Superior</t>
-  </si>
-  <si>
-    <t>Tinta Esmalte para Construcao Civil; Sintetico, Desempenho Premium, Diluicao Em Agua, Sem Cheiro; para Uso Externo e Interno; a Base de Resina Acrilica Modificada, Pigmentos, Microbicidas Nao Metalicos, Outros Aditivos e Agua; Rendimento Minimo de 55m2/galao/demao, viscosidadeentre 75 a 85uUuk; Na Cor Marfim Notacao Ral 1014 (comercialmente Marfim 0668); Acabamento Brilhante, Secagem Rapida Ao Toque de Nomaximo 1 Hora,devendo Apresentar a Ficha Tecnica; e Ficha Fispq do Produto, Com Prazo de Validade Minimo 24 Meses a Partir do Recebimento; Conforme Conforme Norma de Classificacao Abnt Nbr 11702 Tipo 4.2.1.2 Ou Superior</t>
+    <t>Tinta Latex; Desempenho Premium, Tipo Látex Vinil Acrílica para Parede; Composição à Base de Resina Acrílica, Polímeros Vinílicos, Pigmentos Ativos, Cargas Inertes; Coalescentes, Espessantes, Bactericidas e Fungicidas, Aditivos e Água; Solvente Base Água, Diluível Em Água Potável, Baixa Toxidade, Viscosidade de 100 Uk; Rendimento de 380 M²/demão (embalagem 18l), Peso Específico Aprox. 1,40 G/cm³, Brilho @60°c de 4 Ub; Voc (compostos Orgânicos Voláteis) de 6,40 G/l; Isenta de Metais Pesados; Acabamento Fosco Aveludado; Na Cor Branco Notação Ral 9010 (comercialmente Branco Neve); para Ambientes Externos e Internos, Superfícies de Alvenaria, Reboco, Concreto, Fibrocimento, Texturas; Massa Acrílica, Massa Corrida e Gesso; Validade Mínima de 18 Meses a Partir do Recebimento; Deverá Ser Entregue o Boletim Técnico e Fispq Da Tinta; Conforme Norma de Especificação Abnt Nbr 15079 e Norma de Classificação Abnt Nbr 11702 Tipo 4.5.1;</t>
+  </si>
+  <si>
+    <t>Tinta Latex; Desempenho Premium, Tipo Acrílica; Composição à Base de Resina Acrílica, Coalescentes, Pigmentos Ativos, Cargas Inertes, Aditivos; Microbicidas Não Metálicos e Água; Diluível Em Água; Rendimento 200 a 320 M²/galão/demão (embalagem 18l), Viscosidade 100 Uk, Peso Específico 1,260 G/cm³; Voc (compostos Orgânicos Voláteis) Aprox. 2,0 G/l; Sólidos/peso de 30,0 a 50,0%; Acabamento Fosco; Na Cor Marfim Notação Ral 1014; para Superfícies Externas e Internas de Alvenaria, Massa Corrida, Massa Acrílica, Gesso, Texturas; Fibrocimento; Validade de 24 Meses a Partir Da Entrega; Conforme Norma de Especificação Abnt Nbr 15079 e Norma de Classificação Abnt Nbr 11702 Tipo 4.5.1</t>
+  </si>
+  <si>
+    <t>Tinta Acrilico; Premium; Resina Acrilica Elastomerica Em Dispersao Aquosa; Base Agua; Rendimento de 15 a 21 M2/l; Isento de Metais Pesados; Acabamento Semibrilho; Cor Concreto (munsell 5y 6/2); para Interior e Exterior; Validade 36 Meses</t>
+  </si>
+  <si>
+    <t>Tinta Esmalte para Construcao Civil; Sintetico; para Para Superficies de Madeira e Metal; a Base de Solvente; Rendimento de Ate 20m2 Por Demao, Tempo de Secagem Final de 18h; Na Cor Preta; Acabamento Fosco; Diluicao Em Aguarras; Conforme Conforme Classificacao Norma Abnt Nbr 11702 Tipo 4.2.2.1</t>
+  </si>
+  <si>
+    <t>Tinta Esmalte para Construcao Civil; Sintetico; para Superficies Internas e Externas; a Base de Resina Alquidica; Rendimento Minimo de 70m2/demao, Viscosidade 74-79uk,voc 487,83g/l,peso Específico 0,910-1,110g/cm3; Na Cor Platina (pantone 427c); Acabamento Em Alto Brilho; Linha Premium; Conforme Nbr 11702/15311/15314/15315</t>
+  </si>
+  <si>
+    <t>Tinta Esmalte para Construcao Civil; Premium; para Superficies de Metal e Madeira; a Base de Água, Resina Acrílica Modificada, Pigmentos Orgânicos e Inorgânicos, Cargas Minerais Inertes; Coalescentes, Espessantes; Na Cor Amarelo Ouro, Rendimento de 75m2/demão; Acabamento Brilhante; Com Ficha Técnica e Ficha Fispq do Produto, Prazode Validade 36 Meses; Conforme Abnt / Nbr 11702, Tipo 4.2.2.1 Ou Superior</t>
+  </si>
+  <si>
+    <t>Tinta Esmalte para Construcao Civil; Sintetico, Desempenho Premium, Diluicao Em Agua, Sem Cheiro; para Uso Externo e Interno; a Base de Resina Acrilica Modificada, Pigmentos, Microbicidas Nao Metalicos, Outros Aditivos e Agua; Rendimento Minimo de 55m2/galao/demao,viscosidadeentre 75 a 85uk; Na Cor Marfim Notacao Ral 1014 (comercialmente Marfim 0668); Acabamento Brilhante, Secagem Rapida Ao Toque de Nomaximo 1 Hora,devendo Apresentar a Ficha Tecnica; e Ficha Fispq do Produto, Com Prazo de Validade Minimo 24 Meses a Partir do Recebimento; Conforme Conforme Norma de Classificacao Abnt Nbr 11702 Tipo 4.2.1.2 Ou Superior</t>
   </si>
   <si>
     <t>Tubo; Pvc Rigido; 25 Mm; Soldavel, Ser Utilizado Em Instalacoes Prediais de Agua Fria; Marrom; Nbr 5648</t>
@@ -619,19 +619,19 @@
     <t>Bloco Vazado de Concreto; Tipo Estrutural; Medindo (19x19x39)cm (lxaxc); Classe A, Com Funcao Estrutural; para Uso Em Elementos de Alvenaria Acima do Nivel do Solo; Resistência a Compressao de 8,0 Mpa; Conforme Norma Nbr/abnt 6136</t>
   </si>
   <si>
-    <t>Manta Impermeabilizante; a Base de Asfalto Modificado; Com Polímeros Elastoméricos (el); Com Estrutura de Não Tecido de Filamentos de Poliéster, Tipo lii; Com Acabamento Em Alumínio Na Face Exposta; Com Largura de 10 M, Espessura Mínima de 4 Mm; C/ Absorcao Max. de 1,5 %; Com Flexibilidade a Bx. Temp.de -5ºc (mínima); Com Ponto de Amolecimento Entre 95ºc (escorrimento Mínimo), Fabricada Conforme Norma Abnt Nbr 9952</t>
+    <t>Manta Impermeabilizante; a Base de Asfalto Modificado; Com Polímeros Elastoméricos (el); Com Estrutura de Não Tecido de Filamentos de Poliéster, Tipo Iii; Com Acabamento Em Alumínio Na Face Exposta; Com Largura de 1,0 M, Espessura Mínima de 4 Mm; C/ Absorcao Max. de 1,5 %; Com Flexibilidade a Bx. Temp.de -5°c (mínima); Com Ponto de Amolecimento Entre 95°c (escorrimento Mínimo), Fabricada Conforme Norma Abnt Nbr 9952</t>
   </si>
   <si>
     <t>Primer; Composto Por Solução Asfáltica Base Solvente, Primeira Qualidade; Na Cor Preta; para Aderir Mantas Asfálticas; Conforme Norma Abnt Nbr 9686</t>
   </si>
   <si>
-    <t>Telha; de Aco Galvalume; Tipo Trapezoidal Perfil Tr40, Sem Pintura; Medindo (4,80 x 0,98 x 1,05)m (c x | Util x | Total), Com Espessura de 0,685 Mm; Conforme Normas Nbr/abnt e Legislacao Vigentes</t>
+    <t>Telha; de Aco Galvalume; Tipo Trapezoidal Perfil Tr40, Sem Pintura; Medindo (4,80 x 0,98 x 1,05)m (c x l Util x l Total), Com Espessura de 0,65 Mm; Conforme Normas Nbr/abnt e Legislacao Vigentes</t>
   </si>
   <si>
     <t>Parafuso para Telhas; de Aco Baixo Carbono, Cementado e Temperado; Galvanizado; Autobrocante; Sextavada; Diametro de (1/4" x 3/4"); Comprimento de 20mm</t>
   </si>
   <si>
-    <t>Perfil u Enrijecido; Aco; Espessura 3mm; Altura Da Alma 75mm; Altura Da Aba 40mm; Altura do Elemento Enrijecido 1,5mMm; Comprimento 6m; Acabamento Natural; para Vigamento Da Construcao</t>
+    <t>Perfil u Enrijecido; Aco; Espessura 3mm; Altura Da Alma 75mm; Altura Da Aba 40mm; Altura do Elemento Enrijecido 15mm; Comprimento 6m; Acabamento Natural; para Vigamento Da Construcao</t>
   </si>
   <si>
     <t>Tubo Quadrado; de Aco Metalon; Medindo 100 Mm x 100 Mm; Com Espessura de 3mm; Tipo Liso; Devendo Ser Entregue Com Acabamento Natural</t>
@@ -646,40 +646,37 @@
     <t>Forro; de Pvc; Medindo 8m x 20cm x 8mm (compxlargxesp); Na Cor Branca, Acabamento Brilhante</t>
   </si>
   <si>
-    <t>Motor Eletrico para Portao; Pivotante Duplo, Kit Lados Direito e Esquerdo; Monofasico, 220v; 1/3 Cv, Forca de Arraste 50 Kgf, Corrente (a) 2,8/1,7, Capacitor 33/12 Uf; Velocidade 15 M/min, Tempo de Abertura 12 Seg; Kit Instalacao Acionador do Motori; Central Comando, Peso Portao Ate 500 Kg, Carenagem Polimetro Uv; Central de Comando Com Controle Remoto, Frequencia433,92 Mhz e Alcance Minimo de 30m; Com Garantia de 12 Meses No Minimo</t>
-  </si>
-  <si>
-    <t>Motor Eletrico para Portao; Deslizante;: Monofasico; 220v; 3/4 Hp; Com Kit de Intalacao do Acionador do Motor, 10 (dez) Metros de Cremalheira; Cenitral de Comando de Entrada e Saida, Com 02 (dois) Controle Remoto; Com Garantia de No Minimo 12 Meses</t>
-  </si>
-  <si>
-    <t>Botao de Comando; Pulsador, Nao Iluminado, Aro e Botao Na Cor Preta, Diametro de Furacao 22,5mm, 2na; Grau de Protecao Ip65, Conforme Nbr lec 60947-5-1,capacidade Dos Contatos Abertura 3a/240v</t>
-  </si>
-  <si>
-    <t>Serra Eletricai Serra Marmore; Potencia Minima 1400w; Rotacao Sem Carga 12000 a 13000rpm; Diametro do Disco 125mm, Capacidade de Corte Min 38mMm a 90 Graus; Tensao 220v; Pesando No Maximo 3kg; Acompanha Chave de Boca e Chave Hexagonal para Troca do Disco, Garantia Minima 1 Ano</t>
-  </si>
-  <si>
-    <t>Furadeira; Corpo Metalico e Plastico de Alta Resistencia; Tipo de Impacto - Com Capacidade de Perfurar Concreto 30/20 Mm - Aco 16/10 Mm - Madeira 50/80 Mm; Com Mandril 5/8]- 16 Mm; e Potencia de No Minimo 900 Watts - 02 Velocidades; Rotacao de 645/1400 Min-1;: Na Voltagem 220 V; Com Capacidade para Impacto +/- 6240/13600 P/min. Comutador de Troca de Rotacao Ou Impacto - Embreagem de Seguranca - Punho Pa; Interruptor Bipolar Com Trava - Acompanha Empunhadeira Auxiliar - Certificado de Garantia e Manual; Acondicionado de Forma Apropriada, de Modo a Garantir Seu Perfeito Recebimento</t>
-  </si>
-  <si>
-    <t>Esmerilhadeira; Tipo Angular 4,1/2",dimensoes Aproximadas de 77 X263 x 104 MM = | xc x A; Tipo Eletrica Com Fio, 220 Volts, Interruptor Bloqueavel; Potencia Nominal Absorvida de No Minimo 710w; Rotacao 12.000 R.p.m.; Peso Aproximado de De 1,7 Kg; Diametro do Disco = 115 Mm, Eixo M14; Acompanha Chave de Aperto,flange de Apoio,porcadeaperto,vcapa de Protecao,punho Auxiliar; e Manual; Acondicionada de Forma Adequada Com Garantia Da Fabricante 12 Meses</t>
-  </si>
-  <si>
-    <t>Parafusadeira; Em Corpo Em Plastico de Alta Resistencia; Tipo Parafuasadeira/furadeira; de Impacto, Bateria de 20 Veolts; Dimensoes Aproximadas 40.5 x 11.5 x 252 Mm (c x | x A); Linha Profissional; Torque de No Minimo 95 Nm; Mandril de 1/2";: Baterias 20v; Rotacao Minima Por Minuto O-550 e 1350 e 0-2000 Rpm; Velocidade Variavel e Reversivel,.capacidade de Perfuracao: Metal 13mm ,madeira 35mm; Pesando Aproximadamente 1,5 Kg; Com Garantia Minima de Garantia Minima 12 Meses; Acomp. 2 Baterias 20v ,1 Carregador de Bateria e 1 Maleta;: Com Luz de Led,vcom Trava de Seguranca do Gatilho</t>
-  </si>
-  <si>
-    <t>Rocadeira Manual: Com Motor 45,7 Cilindradas (min) , Com Potencia Minima de 2,8 Hp, a Gasolina; 12500 Rpm (min); Rotacao Da Marcha Lenta 2700 Rpm (min); Com Tanque de Combustivel de 0,9 Litros (min); Tipo Lateral, Com Angulo de Engrenagem de Direção35 Graus; Pesando Aproximadamente 8,5 Kg; Conjunto de Corte Composto de Cabeçote de Fio de Nylon, Lâmina de 3 Pontas e Serra Circular; Guidão Angulado e Empunhaduras Ergonômicas; Cinturão Ergonômico Com Suporte Costal e Faixas No Ombro;</t>
+    <t>Motor Eletrico para Portao; Pivotante Duplo, Kit Lados Direito e Esquerdo; Monofasico, 220v; 1/3 Cv, Forca de Arraste 50 Kgf, Corrente (a) 2,8/1,7, Capacitor 33/12 Uf; Velocidade 15 M/min, Tempo de Abertura 12 Seg; Kit Instalacao Acionador do Motor, Central Comando, Peso Portao Ate 500 Kg, Carenagem Polimetro Uv; Central de Comando Com Controle Remoto, Frequencia433,92 Mhz e Alcance Minimo de 30m; Com Garantia de 12 Meses No Minimo</t>
+  </si>
+  <si>
+    <t>Motor Eletrico para Portao; Deslizante; Monofasico; 220v; 3/4 Hp; Com Kit de Intalacao do Acionador do Motor, 10 (dez) Metros de Cremalheira; Central de Comando de Entrada e Saida, Com 02 (dois) Controle Remoto; Com Garantia de No Minimo 12 Meses</t>
+  </si>
+  <si>
+    <t>Botao de Comando; Pulsador, Nao Iluminado, Aro e Botao Na Cor Preta, Diametro de Furacao 22,5mm, 2na; Grau de Protecao Ip65, Conforme Nbr Iec 60947-5-1,capacidade Dos Contatos Abertura 3a/240v</t>
+  </si>
+  <si>
+    <t>Serra Eletrica; Serra Marmore; Potencia Minima 1400w; Rotacao Sem Carga 12000 a 13000rpm; Diametro do Disco 125mm, Capacidade de Corte Min 38mm a 90 Graus; Tensao 220v; Pesando No Maximo 3kg; Acompanha Chave de Boca e Chave Hexagonal para Troca do Disco, Garantia Minima 1 Ano</t>
+  </si>
+  <si>
+    <t>Furadeira; Corpo Metalico e Plastico de Alta Resistencia; Tipo de Impacto - Com Capacidade de Perfurar Concreto 30/20 Mm - Aco 16/10 Mm - Madeira 50/30 Mm; Com Mandril 5/8]- 16 Mm; e Potencia de No Minimo 900 Watts - 02 Velocidades; Rotacao de 645/1400 Min-1; Na Voltagem 220 V; Com Capacidade para Impacto +/- 6240/13600 P/min. Comutador de Troca de Rotacao Ou Impacto - Embreagem de Seguranca - Punho Pa; Interruptor Bipolar Com Trava - Acompanha Empunhadeira Auxiliar - Certificado de Garantia e Manual; Acondicionado de Forma Apropriada, de Modo a Garantir Seu Perfeito Recebimento</t>
+  </si>
+  <si>
+    <t>Esmerilhadeira; Tipo Angular 4.1/2",dimensoes Aproximadas de 77 X263 x 104 Mm = l x c x A; Tipo Eletrica Com Fio, 220 Volts, Interruptor Bloqueavel; Potencia Nominal Absorvida de No Minimo 710w; Rotacao 12.000 R.p.m.; Peso Aproximado de De 1,7 Kg; Diametro do Disco = 115 Mm, Eixo M14; Acompanha Chave de Aperto,flange de Apoio,porcadeaperto,capa de Protecao,punho Auxiliar; e Manual; Acondicionada de Forma Adequada Com Garantia Da Fabricante 12 Meses</t>
+  </si>
+  <si>
+    <t>Parafusadeira; Em Corpo Em Plastico de Alta Resistencia; Tipo Parafuasadeira/furadeira; de Impacto, Bateria de 20 Volts; Dimensoes Aproximadas 40.5 x 11.5 x 25.2 Mm (c x l x A); Linha Profissional; Torque de No Minimo 95 Nm; Mandril de 1/2"; Baterias 20v; Rotacao Minima Por Minuto 0-550 e 1350 e 0-2000 Rpm; Velocidade Variavel e Reversivel,capacidade de Perfuracao: Metal 13mm,madeira 35mm; Pesando Aproximadamente 1,5 Kg; Com Garantia Minima de Garantia Minima 12 Meses; Acomp. 2 Baterias 20v ,1 Carregador de Bateria e 1 Maleta; Com Luz de Led,com Trava de Seguranca do Gatilho</t>
+  </si>
+  <si>
+    <t>Rocadeira Manual; Com Motor 45,7 Cilindradas (min) , Com Potencia Minima de 2,8 Hp, a Gasolina; 12500 Rpm (min); Rotacao Da Marcha Lenta 2700 Rpm (min); Com Tanque de Combustivel de 0,9 Litros (min); Tipo Lateral, Com Angulo de Engrenagem de Direção35 Graus; Pesando Aproximadamente 8,5 Kg; Conjunto de Corte Composto de Cabeçote de Fio de Nylon, Lâmina de 3 Pontas e Serra Circular; Guidão Angulado e Empunhaduras Ergonômicas; Cinturão Ergonômico Com Suporte Costal e Faixas No Ombro;</t>
   </si>
   <si>
     <t>Intercomunicador; para Atendimento; Em Aluminio Com Pintura Automotiva; Com Controle de Volume Tx; Com Ajuste de Volume Manual; Com Potência Em Pmpo de No Minimo 50w; Microfone Flexivel Com No Minimo de 45 Cm de Comprimento; Acompanha Fonte de Alimentação para 110/220 v para Fonte 12 V; Com Aprox. 55 Mm de Esp No Corpo Interno, 35 Mm de Esp. No Corpo Externo e Diâmetro de 110 Mm; Acompanha Manual de Instrução Em Português; Garantia Minima de 12 Meses</t>
   </si>
   <si>
-    <t>Bebedouro Eletrico; de Tipo Industria;: Gabinete Em Aco Inoxidavel Aisi 304 Com Isolamento Em Poliuretano; Com 03 Torneiras Com Acionamento Rapido e Acabamento Cromado; Sendo Torneiras Removiveis e Desmontaveis para Higienizacao; Reservatorio Em Aco Inoxidavel Aisi 304, Capacidade para 100 Litros; Com Serpentina Em Aco Inoxidavel, Isolamento Em Poliuretano, Compressor Hermetico de 1/4 Hp; Medindo Aproximadamente (1520x720x420)mm=(axlxp); para Uso Externo e Interno, Grau de Protecao Ipx4; Com Tensao de Alimentacao de 220v; Certificacao Compulsoria do Inmetro; e Garantia de No Minimo 12 Meses</t>
-  </si>
-  <si>
-    <t>Bebedouro Eletrico; de Coluna, para Garrafao de 20|l: Gabinete Em Aco Com Pintura Epoxi Em Po, Na Cor Branca; Com Termostato Externo e Frontal: Com 02 Torneiras, de Cores Diferentes para Indicar Agua Gelada e Natural! Sendo Removiveis e Desmontaveis para Higienizacao; Medindo Aproximadamente (98 x 32 x 35)cm (a x | x P); para Uso Interno; Com Tensao de Alimentacao de 110/220v (bivolt), Potencia 145w, Frequencia de 60hz, Capacidade Minima de 4l/h de Agua Gelada; Certificacao Compulsoria do Inmetro; e Garantia de 12 Meses</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>Bebedouro Eletrico; de Tipo Industrial; Gabinete Em Aco Inoxidavel Aisi 304 Com Isolamento Em Poliuretano; Com 03 Torneiras Com Acionamento Rapido e Acabamento Cromado; Sendo Torneiras Removiveis e Desmontaveis para Higienizacao; Reservatorio Em Aco Inoxidavel Aisi 304, Capacidade para 100 Litros; Com Serpentina Em Aco Inoxidavel, Isolamento Em Poliuretano, Compressor Hermetico de 1/4 Hp; Medindo Aproximadamente (1520x720x420)mm=(axlxp); para Uso Externo e Interno, Grau de Protecao Ipx4; Com Tensao de Alimentacao de 220v; Certificacao Compulsoria do Inmetro; e Garantia de No Minimo 12 Meses</t>
+  </si>
+  <si>
+    <t>Bebedouro Eletrico; de Coluna, para Garrafao de 20l; Gabinete Em Aco Com Pintura Epoxi Em Po, Na Cor Branca; Com Termostato Externo e Frontal; Com 02 Torneiras, de Cores Diferentes para Indicar Agua Gelada e Natural; Sendo Removiveis e Desmontaveis para Higienizacao; Medindo Aproximadamente (98 x 32 x 35)cm (a x l x P); para Uso Interno; Com Tensao de Alimentacao de 110/220v (bivolt), Potencia 145w, Frequencia de 60hz, Capacidade Minima de 4l/h de Agua Gelada; Certificacao Compulsoria do Inmetro; e Garantia de 12 Meses</t>
   </si>
   <si>
     <t>Saco</t>
@@ -1121,20 +1118,14 @@
       <c r="D2">
         <v>500</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>221</v>
       </c>
-      <c r="F2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" t="s">
-        <v>222</v>
-      </c>
       <c r="H2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1150,20 +1141,14 @@
       <c r="D3">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" t="s">
-        <v>221</v>
-      </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1179,20 +1164,14 @@
       <c r="D4">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" t="s">
-        <v>221</v>
-      </c>
       <c r="G4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1208,20 +1187,14 @@
       <c r="D5">
         <v>50</v>
       </c>
-      <c r="E5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F5" t="s">
-        <v>221</v>
-      </c>
       <c r="G5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1237,20 +1210,14 @@
       <c r="D6">
         <v>100</v>
       </c>
-      <c r="E6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" t="s">
-        <v>221</v>
-      </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1266,20 +1233,14 @@
       <c r="D7">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F7" t="s">
-        <v>221</v>
-      </c>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1295,20 +1256,14 @@
       <c r="D8">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F8" t="s">
-        <v>221</v>
-      </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1324,20 +1279,14 @@
       <c r="D9">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" t="s">
-        <v>221</v>
-      </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1353,20 +1302,14 @@
       <c r="D10">
         <v>100</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>221</v>
       </c>
-      <c r="F10" t="s">
-        <v>221</v>
-      </c>
-      <c r="G10" t="s">
-        <v>222</v>
-      </c>
       <c r="H10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1382,20 +1325,14 @@
       <c r="D11">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F11" t="s">
-        <v>221</v>
-      </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1411,20 +1348,14 @@
       <c r="D12">
         <v>150</v>
       </c>
-      <c r="E12" t="s">
-        <v>221</v>
-      </c>
-      <c r="F12" t="s">
-        <v>221</v>
-      </c>
       <c r="G12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1440,20 +1371,14 @@
       <c r="D13">
         <v>30</v>
       </c>
-      <c r="E13" t="s">
-        <v>221</v>
-      </c>
-      <c r="F13" t="s">
-        <v>221</v>
-      </c>
       <c r="G13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1469,20 +1394,14 @@
       <c r="D14">
         <v>150</v>
       </c>
-      <c r="E14" t="s">
-        <v>221</v>
-      </c>
-      <c r="F14" t="s">
-        <v>221</v>
-      </c>
       <c r="G14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1498,20 +1417,14 @@
       <c r="D15">
         <v>150</v>
       </c>
-      <c r="E15" t="s">
-        <v>221</v>
-      </c>
-      <c r="F15" t="s">
-        <v>221</v>
-      </c>
       <c r="G15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1527,20 +1440,14 @@
       <c r="D16">
         <v>150</v>
       </c>
-      <c r="E16" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" t="s">
-        <v>221</v>
-      </c>
       <c r="G16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1556,20 +1463,14 @@
       <c r="D17">
         <v>200</v>
       </c>
-      <c r="E17" t="s">
-        <v>221</v>
-      </c>
-      <c r="F17" t="s">
-        <v>221</v>
-      </c>
       <c r="G17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1585,20 +1486,14 @@
       <c r="D18">
         <v>5</v>
       </c>
-      <c r="E18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F18" t="s">
-        <v>221</v>
-      </c>
       <c r="G18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1614,20 +1509,14 @@
       <c r="D19">
         <v>15</v>
       </c>
-      <c r="E19" t="s">
-        <v>221</v>
-      </c>
-      <c r="F19" t="s">
-        <v>221</v>
-      </c>
       <c r="G19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1643,20 +1532,14 @@
       <c r="D20">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" t="s">
-        <v>221</v>
-      </c>
       <c r="G20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1672,20 +1555,14 @@
       <c r="D21">
         <v>18</v>
       </c>
-      <c r="E21" t="s">
-        <v>221</v>
-      </c>
-      <c r="F21" t="s">
-        <v>221</v>
-      </c>
       <c r="G21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1701,20 +1578,14 @@
       <c r="D22">
         <v>18</v>
       </c>
-      <c r="E22" t="s">
-        <v>221</v>
-      </c>
-      <c r="F22" t="s">
-        <v>221</v>
-      </c>
       <c r="G22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1730,20 +1601,14 @@
       <c r="D23">
         <v>5</v>
       </c>
-      <c r="E23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F23" t="s">
-        <v>221</v>
-      </c>
       <c r="G23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1759,20 +1624,14 @@
       <c r="D24">
         <v>5</v>
       </c>
-      <c r="E24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" t="s">
-        <v>221</v>
-      </c>
       <c r="G24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1788,20 +1647,14 @@
       <c r="D25">
         <v>200</v>
       </c>
-      <c r="E25" t="s">
-        <v>221</v>
-      </c>
-      <c r="F25" t="s">
-        <v>221</v>
-      </c>
       <c r="G25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1817,20 +1670,14 @@
       <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" t="s">
-        <v>221</v>
-      </c>
-      <c r="F26" t="s">
-        <v>221</v>
-      </c>
       <c r="G26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1846,20 +1693,14 @@
       <c r="D27">
         <v>150</v>
       </c>
-      <c r="E27" t="s">
-        <v>221</v>
-      </c>
-      <c r="F27" t="s">
-        <v>221</v>
-      </c>
       <c r="G27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1875,20 +1716,14 @@
       <c r="D28">
         <v>50</v>
       </c>
-      <c r="E28" t="s">
-        <v>221</v>
-      </c>
-      <c r="F28" t="s">
-        <v>221</v>
-      </c>
       <c r="G28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1904,20 +1739,14 @@
       <c r="D29">
         <v>50</v>
       </c>
-      <c r="E29" t="s">
-        <v>221</v>
-      </c>
-      <c r="F29" t="s">
-        <v>221</v>
-      </c>
       <c r="G29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1933,20 +1762,14 @@
       <c r="D30">
         <v>50</v>
       </c>
-      <c r="E30" t="s">
-        <v>221</v>
-      </c>
-      <c r="F30" t="s">
-        <v>221</v>
-      </c>
       <c r="G30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1962,20 +1785,14 @@
       <c r="D31">
         <v>100</v>
       </c>
-      <c r="E31" t="s">
-        <v>221</v>
-      </c>
-      <c r="F31" t="s">
-        <v>221</v>
-      </c>
       <c r="G31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1991,20 +1808,14 @@
       <c r="D32">
         <v>50</v>
       </c>
-      <c r="E32" t="s">
-        <v>221</v>
-      </c>
-      <c r="F32" t="s">
-        <v>221</v>
-      </c>
       <c r="G32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2020,20 +1831,14 @@
       <c r="D33">
         <v>110</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>221</v>
       </c>
-      <c r="F33" t="s">
-        <v>221</v>
-      </c>
-      <c r="G33" t="s">
-        <v>222</v>
-      </c>
       <c r="H33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2049,20 +1854,14 @@
       <c r="D34">
         <v>110</v>
       </c>
-      <c r="E34" t="s">
-        <v>221</v>
-      </c>
-      <c r="F34" t="s">
-        <v>221</v>
-      </c>
       <c r="G34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2078,20 +1877,14 @@
       <c r="D35">
         <v>110</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>221</v>
       </c>
-      <c r="F35" t="s">
-        <v>221</v>
-      </c>
-      <c r="G35" t="s">
-        <v>222</v>
-      </c>
       <c r="H35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2107,20 +1900,14 @@
       <c r="D36">
         <v>300</v>
       </c>
-      <c r="E36" t="s">
-        <v>221</v>
-      </c>
-      <c r="F36" t="s">
-        <v>221</v>
-      </c>
       <c r="G36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2136,20 +1923,14 @@
       <c r="D37">
         <v>300</v>
       </c>
-      <c r="E37" t="s">
-        <v>221</v>
-      </c>
-      <c r="F37" t="s">
-        <v>221</v>
-      </c>
       <c r="G37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2165,20 +1946,14 @@
       <c r="D38">
         <v>800</v>
       </c>
-      <c r="E38" t="s">
-        <v>221</v>
-      </c>
-      <c r="F38" t="s">
-        <v>221</v>
-      </c>
       <c r="G38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2194,20 +1969,14 @@
       <c r="D39">
         <v>100</v>
       </c>
-      <c r="E39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F39" t="s">
-        <v>221</v>
-      </c>
       <c r="G39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2223,20 +1992,14 @@
       <c r="D40">
         <v>50</v>
       </c>
-      <c r="E40" t="s">
-        <v>221</v>
-      </c>
-      <c r="F40" t="s">
-        <v>221</v>
-      </c>
       <c r="G40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2252,20 +2015,14 @@
       <c r="D41">
         <v>100</v>
       </c>
-      <c r="E41" t="s">
-        <v>221</v>
-      </c>
-      <c r="F41" t="s">
-        <v>221</v>
-      </c>
       <c r="G41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2281,20 +2038,14 @@
       <c r="D42">
         <v>150</v>
       </c>
-      <c r="E42" t="s">
-        <v>221</v>
-      </c>
-      <c r="F42" t="s">
-        <v>221</v>
-      </c>
       <c r="G42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2310,20 +2061,14 @@
       <c r="D43">
         <v>150</v>
       </c>
-      <c r="E43" t="s">
-        <v>221</v>
-      </c>
-      <c r="F43" t="s">
-        <v>221</v>
-      </c>
       <c r="G43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2339,20 +2084,14 @@
       <c r="D44">
         <v>100</v>
       </c>
-      <c r="E44" t="s">
-        <v>221</v>
-      </c>
-      <c r="F44" t="s">
-        <v>221</v>
-      </c>
       <c r="G44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2368,20 +2107,14 @@
       <c r="D45">
         <v>120</v>
       </c>
-      <c r="E45" t="s">
-        <v>221</v>
-      </c>
-      <c r="F45" t="s">
-        <v>221</v>
-      </c>
       <c r="G45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2397,20 +2130,14 @@
       <c r="D46">
         <v>80</v>
       </c>
-      <c r="E46" t="s">
-        <v>221</v>
-      </c>
-      <c r="F46" t="s">
-        <v>221</v>
-      </c>
       <c r="G46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2426,20 +2153,14 @@
       <c r="D47">
         <v>50</v>
       </c>
-      <c r="E47" t="s">
-        <v>221</v>
-      </c>
-      <c r="F47" t="s">
-        <v>221</v>
-      </c>
       <c r="G47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2455,20 +2176,14 @@
       <c r="D48">
         <v>80</v>
       </c>
-      <c r="E48" t="s">
-        <v>221</v>
-      </c>
-      <c r="F48" t="s">
-        <v>221</v>
-      </c>
       <c r="G48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2484,20 +2199,14 @@
       <c r="D49">
         <v>25</v>
       </c>
-      <c r="E49" t="s">
-        <v>221</v>
-      </c>
-      <c r="F49" t="s">
-        <v>221</v>
-      </c>
       <c r="G49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2513,20 +2222,14 @@
       <c r="D50">
         <v>120</v>
       </c>
-      <c r="E50" t="s">
-        <v>221</v>
-      </c>
-      <c r="F50" t="s">
-        <v>221</v>
-      </c>
       <c r="G50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2542,20 +2245,14 @@
       <c r="D51">
         <v>50</v>
       </c>
-      <c r="E51" t="s">
-        <v>221</v>
-      </c>
-      <c r="F51" t="s">
-        <v>221</v>
-      </c>
       <c r="G51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2571,20 +2268,14 @@
       <c r="D52">
         <v>2500</v>
       </c>
-      <c r="E52" t="s">
-        <v>221</v>
-      </c>
-      <c r="F52" t="s">
-        <v>221</v>
-      </c>
       <c r="G52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2600,20 +2291,14 @@
       <c r="D53">
         <v>20</v>
       </c>
-      <c r="E53" t="s">
-        <v>221</v>
-      </c>
-      <c r="F53" t="s">
-        <v>221</v>
-      </c>
       <c r="G53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2629,20 +2314,14 @@
       <c r="D54">
         <v>4</v>
       </c>
-      <c r="E54" t="s">
-        <v>221</v>
-      </c>
-      <c r="F54" t="s">
-        <v>221</v>
-      </c>
       <c r="G54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2658,20 +2337,14 @@
       <c r="D55">
         <v>100</v>
       </c>
-      <c r="E55" t="s">
-        <v>221</v>
-      </c>
-      <c r="F55" t="s">
-        <v>221</v>
-      </c>
       <c r="G55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2687,20 +2360,14 @@
       <c r="D56">
         <v>200</v>
       </c>
-      <c r="E56" t="s">
-        <v>221</v>
-      </c>
-      <c r="F56" t="s">
-        <v>221</v>
-      </c>
       <c r="G56" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2716,20 +2383,14 @@
       <c r="D57">
         <v>20</v>
       </c>
-      <c r="E57" t="s">
-        <v>221</v>
-      </c>
-      <c r="F57" t="s">
-        <v>221</v>
-      </c>
       <c r="G57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2745,20 +2406,14 @@
       <c r="D58">
         <v>20</v>
       </c>
-      <c r="E58" t="s">
-        <v>221</v>
-      </c>
-      <c r="F58" t="s">
-        <v>221</v>
-      </c>
       <c r="G58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2774,20 +2429,14 @@
       <c r="D59">
         <v>10</v>
       </c>
-      <c r="E59" t="s">
-        <v>221</v>
-      </c>
-      <c r="F59" t="s">
-        <v>221</v>
-      </c>
       <c r="G59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2803,20 +2452,14 @@
       <c r="D60">
         <v>10</v>
       </c>
-      <c r="E60" t="s">
-        <v>221</v>
-      </c>
-      <c r="F60" t="s">
-        <v>221</v>
-      </c>
       <c r="G60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2832,20 +2475,14 @@
       <c r="D61">
         <v>200</v>
       </c>
-      <c r="E61" t="s">
-        <v>221</v>
-      </c>
-      <c r="F61" t="s">
-        <v>221</v>
-      </c>
       <c r="G61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2861,20 +2498,14 @@
       <c r="D62">
         <v>40</v>
       </c>
-      <c r="E62" t="s">
-        <v>221</v>
-      </c>
-      <c r="F62" t="s">
-        <v>221</v>
-      </c>
       <c r="G62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2890,20 +2521,14 @@
       <c r="D63">
         <v>4</v>
       </c>
-      <c r="E63" t="s">
-        <v>221</v>
-      </c>
-      <c r="F63" t="s">
-        <v>221</v>
-      </c>
       <c r="G63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2919,20 +2544,14 @@
       <c r="D64">
         <v>50</v>
       </c>
-      <c r="E64" t="s">
-        <v>221</v>
-      </c>
-      <c r="F64" t="s">
-        <v>221</v>
-      </c>
       <c r="G64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2948,20 +2567,14 @@
       <c r="D65">
         <v>2</v>
       </c>
-      <c r="E65" t="s">
-        <v>221</v>
-      </c>
-      <c r="F65" t="s">
-        <v>221</v>
-      </c>
       <c r="G65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2977,20 +2590,14 @@
       <c r="D66">
         <v>2</v>
       </c>
-      <c r="E66" t="s">
-        <v>221</v>
-      </c>
-      <c r="F66" t="s">
-        <v>221</v>
-      </c>
       <c r="G66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3006,20 +2613,14 @@
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" t="s">
-        <v>221</v>
-      </c>
-      <c r="F67" t="s">
-        <v>221</v>
-      </c>
       <c r="G67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3035,20 +2636,14 @@
       <c r="D68">
         <v>3</v>
       </c>
-      <c r="E68" t="s">
-        <v>221</v>
-      </c>
-      <c r="F68" t="s">
-        <v>221</v>
-      </c>
       <c r="G68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3064,20 +2659,14 @@
       <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" t="s">
-        <v>221</v>
-      </c>
-      <c r="F69" t="s">
-        <v>221</v>
-      </c>
       <c r="G69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3093,20 +2682,14 @@
       <c r="D70">
         <v>12</v>
       </c>
-      <c r="E70" t="s">
-        <v>221</v>
-      </c>
-      <c r="F70" t="s">
-        <v>221</v>
-      </c>
       <c r="G70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3122,20 +2705,14 @@
       <c r="D71">
         <v>10</v>
       </c>
-      <c r="E71" t="s">
-        <v>221</v>
-      </c>
-      <c r="F71" t="s">
-        <v>221</v>
-      </c>
       <c r="G71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3151,20 +2728,14 @@
       <c r="D72">
         <v>8</v>
       </c>
-      <c r="E72" t="s">
-        <v>221</v>
-      </c>
-      <c r="F72" t="s">
-        <v>221</v>
-      </c>
       <c r="G72" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
